--- a/excelFile.xlsx
+++ b/excelFile.xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{100662A3-226B-4DF2-B555-4015668C0390}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E582D63-F4FA-4DC1-B273-B7F4EE254522}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="36">
   <si>
     <t>Date</t>
   </si>
@@ -122,6 +123,12 @@
   </si>
   <si>
     <t>C:\Users\Nischal\Documents\MATLAB_Test\TestProcessed</t>
+  </si>
+  <si>
+    <t>D:\ProcessedData\FAD-GcAMP-New</t>
+  </si>
+  <si>
+    <t>Sampling Rate Fluor</t>
   </si>
 </sst>
 </file>
@@ -171,7 +178,70 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="45">
+  <dxfs count="54">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -763,10 +833,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -780,9 +850,10 @@
     <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -810,8 +881,11 @@
       <c r="I1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>181031</v>
       </c>
@@ -837,7 +911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>190530</v>
       </c>
@@ -866,7 +940,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>190530</v>
       </c>
@@ -895,7 +969,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>190530</v>
       </c>
@@ -924,7 +998,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>190530</v>
       </c>
@@ -953,7 +1027,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>190527</v>
       </c>
@@ -982,7 +1056,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>190527</v>
       </c>
@@ -1011,7 +1085,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>190527</v>
       </c>
@@ -1040,7 +1114,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>190527</v>
       </c>
@@ -1069,7 +1143,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>190527</v>
       </c>
@@ -1098,7 +1172,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>190527</v>
       </c>
@@ -1127,7 +1201,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>190527</v>
       </c>
@@ -1156,7 +1230,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>190527</v>
       </c>
@@ -1185,7 +1259,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>180917</v>
       </c>
@@ -1214,7 +1288,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>180917</v>
       </c>
@@ -1243,7 +1317,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>180917</v>
       </c>
@@ -1272,7 +1346,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>180917</v>
       </c>
@@ -1301,7 +1375,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>180917</v>
       </c>
@@ -1330,7 +1404,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>180917</v>
       </c>
@@ -1359,223 +1433,369 @@
         <v>16.8</v>
       </c>
     </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>190530</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21">
+        <v>20</v>
+      </c>
+      <c r="H21">
+        <v>5</v>
+      </c>
+      <c r="I21">
+        <v>9</v>
+      </c>
+      <c r="J21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>190530</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22">
+        <v>20</v>
+      </c>
+      <c r="H22">
+        <v>5</v>
+      </c>
+      <c r="I22">
+        <v>9</v>
+      </c>
+      <c r="J22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>190530</v>
+      </c>
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23">
+        <v>20</v>
+      </c>
+      <c r="H23">
+        <v>5</v>
+      </c>
+      <c r="I23">
+        <v>9</v>
+      </c>
+      <c r="J23">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A2:B2 D2:F2 A1:G1">
-    <cfRule type="expression" dxfId="44" priority="57">
+    <cfRule type="expression" dxfId="53" priority="67">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
+    <cfRule type="expression" dxfId="52" priority="56">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="expression" dxfId="51" priority="55">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1">
+    <cfRule type="expression" dxfId="50" priority="54">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="expression" dxfId="49" priority="53">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="expression" dxfId="48" priority="52">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="expression" dxfId="47" priority="51">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="expression" dxfId="46" priority="50">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="expression" dxfId="45" priority="49">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="expression" dxfId="44" priority="48">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="expression" dxfId="43" priority="47">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
     <cfRule type="expression" dxfId="42" priority="46">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
+  <conditionalFormatting sqref="E7">
     <cfRule type="expression" dxfId="41" priority="45">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1">
+  <conditionalFormatting sqref="F7">
     <cfRule type="expression" dxfId="40" priority="44">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
+  <conditionalFormatting sqref="D8">
     <cfRule type="expression" dxfId="39" priority="43">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
+  <conditionalFormatting sqref="E8">
     <cfRule type="expression" dxfId="38" priority="42">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
+  <conditionalFormatting sqref="F8">
     <cfRule type="expression" dxfId="37" priority="41">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5">
+  <conditionalFormatting sqref="D9">
     <cfRule type="expression" dxfId="36" priority="40">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
+  <conditionalFormatting sqref="E9">
     <cfRule type="expression" dxfId="35" priority="39">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
+  <conditionalFormatting sqref="F9">
     <cfRule type="expression" dxfId="34" priority="38">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="D10">
     <cfRule type="expression" dxfId="33" priority="37">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
+  <conditionalFormatting sqref="E10">
     <cfRule type="expression" dxfId="32" priority="36">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
+  <conditionalFormatting sqref="F10">
     <cfRule type="expression" dxfId="31" priority="35">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
+  <conditionalFormatting sqref="D11">
     <cfRule type="expression" dxfId="30" priority="34">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
+  <conditionalFormatting sqref="E11">
     <cfRule type="expression" dxfId="29" priority="33">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
+  <conditionalFormatting sqref="F11">
     <cfRule type="expression" dxfId="28" priority="32">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8">
+  <conditionalFormatting sqref="D12">
     <cfRule type="expression" dxfId="27" priority="31">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
+  <conditionalFormatting sqref="E12">
     <cfRule type="expression" dxfId="26" priority="30">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
+  <conditionalFormatting sqref="F12">
     <cfRule type="expression" dxfId="25" priority="29">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F9">
+  <conditionalFormatting sqref="D13">
     <cfRule type="expression" dxfId="24" priority="28">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
+  <conditionalFormatting sqref="E13">
     <cfRule type="expression" dxfId="23" priority="27">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E10">
+  <conditionalFormatting sqref="F13">
     <cfRule type="expression" dxfId="22" priority="26">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F10">
+  <conditionalFormatting sqref="D14">
     <cfRule type="expression" dxfId="21" priority="25">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
+  <conditionalFormatting sqref="E14">
     <cfRule type="expression" dxfId="20" priority="24">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E11">
+  <conditionalFormatting sqref="F14">
     <cfRule type="expression" dxfId="19" priority="23">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11">
+  <conditionalFormatting sqref="I1">
     <cfRule type="expression" dxfId="18" priority="22">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
+  <conditionalFormatting sqref="F15">
     <cfRule type="expression" dxfId="17" priority="21">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="expression" dxfId="16" priority="20">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F12">
-    <cfRule type="expression" dxfId="15" priority="19">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="14" priority="18">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
-    <cfRule type="expression" dxfId="13" priority="17">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F13">
-    <cfRule type="expression" dxfId="12" priority="16">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="11" priority="15">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E14">
-    <cfRule type="expression" dxfId="10" priority="14">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F14">
-    <cfRule type="expression" dxfId="9" priority="13">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I1">
-    <cfRule type="expression" dxfId="8" priority="12">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F15">
-    <cfRule type="expression" dxfId="7" priority="11">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="expression" dxfId="6" priority="9">
+    <cfRule type="expression" dxfId="16" priority="19">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="expression" dxfId="5" priority="7">
+    <cfRule type="expression" dxfId="15" priority="17">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="14" priority="16">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="expression" dxfId="3" priority="5">
+    <cfRule type="expression" dxfId="13" priority="15">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="12" priority="14">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="11" priority="13">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
+    <cfRule type="expression" dxfId="10" priority="11">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
+    <cfRule type="expression" dxfId="9" priority="10">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>

--- a/excelFile.xlsx
+++ b/excelFile.xlsx
@@ -3,24 +3,30 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2117C5E7-32E2-46A0-8560-5706D8C456F3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D2B261-7F66-41C2-A434-06A1154EB38D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="46">
   <si>
     <t>Date</t>
   </si>
@@ -110,13 +116,61 @@
   </si>
   <si>
     <t>SamplingRateFluor</t>
+  </si>
+  <si>
+    <t>G73M1</t>
+  </si>
+  <si>
+    <t>D:\ProcessedData\AubreyGcAMP</t>
+  </si>
+  <si>
+    <t>G73M2</t>
+  </si>
+  <si>
+    <t>G73M3</t>
+  </si>
+  <si>
+    <t>G73M4</t>
+  </si>
+  <si>
+    <t>GoodRuns</t>
+  </si>
+  <si>
+    <t>1,2,3</t>
+  </si>
+  <si>
+    <t>E:\AubreyRawData</t>
+  </si>
+  <si>
+    <t>G74M1</t>
+  </si>
+  <si>
+    <t>G74M2</t>
+  </si>
+  <si>
+    <t>G74M3</t>
+  </si>
+  <si>
+    <t>G74M4</t>
+  </si>
+  <si>
+    <t>G75M1</t>
+  </si>
+  <si>
+    <t>G75M2</t>
+  </si>
+  <si>
+    <t>G75M3</t>
+  </si>
+  <si>
+    <t>G75M4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,19 +193,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -173,12 +227,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.249977111117893"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF303030"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -223,16 +295,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -240,405 +344,211 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="54">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
+  <dxfs count="32">
+    <dxf>
+      <font>
+        <color rgb="FF124E13"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFBC0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF124E13"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFBC0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF124E13"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFBC0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF124E13"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFBC0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF124E13"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFBC0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF124E13"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFBC0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF124E13"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFBC0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF124E13"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFBC0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF124E13"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFBC0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF124E13"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFBC0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF124E13"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFBC0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF124E13"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFBC0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF124E13"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFBC0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF124E13"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFBC0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF124E13"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFBC0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFBC0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF124E13"/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF303030"/>
+      <color rgb="FFBC0000"/>
+      <color rgb="FF124E13"/>
+      <color rgb="FF5CCB35"/>
+      <color rgb="FF323232"/>
+      <color rgb="FF3F3F3F"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -913,619 +823,1314 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="12" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="13" customWidth="1"/>
-    <col min="3" max="4" width="46.7109375" style="15" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" style="8" customWidth="1"/>
+    <col min="1" max="2" width="11.85546875" style="6" customWidth="1"/>
+    <col min="3" max="4" width="46.7109375" style="8" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" style="12" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" style="12" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" style="20" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" style="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:11" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="13" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
+      <c r="K1" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
         <v>190530</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="3">
-        <v>20</v>
-      </c>
-      <c r="H2" s="7">
+      <c r="E2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="11">
+        <v>20</v>
+      </c>
+      <c r="H2" s="3">
         <v>5</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="11">
         <v>10</v>
       </c>
-      <c r="J2" s="7"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+      <c r="J2" s="19"/>
+      <c r="K2" s="22"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
         <v>190530</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="4">
-        <v>20</v>
-      </c>
-      <c r="H3" s="8">
+      <c r="E3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="12">
+        <v>20</v>
+      </c>
+      <c r="H3" s="4">
         <v>5</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="12">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
         <v>190527</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="6" t="s">
+      <c r="E4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="4">
-        <v>20</v>
-      </c>
-      <c r="H4" s="8">
+      <c r="G4" s="12">
+        <v>20</v>
+      </c>
+      <c r="H4" s="4">
         <v>400</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="12">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
         <v>190527</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="4">
-        <v>20</v>
-      </c>
-      <c r="H5" s="8">
+      <c r="E5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="12">
+        <v>20</v>
+      </c>
+      <c r="H5" s="4">
         <v>400</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="12">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
         <v>190527</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="6" t="s">
+      <c r="E6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="4">
-        <v>20</v>
-      </c>
-      <c r="H6" s="8">
+      <c r="G6" s="12">
+        <v>20</v>
+      </c>
+      <c r="H6" s="4">
         <v>400</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="12">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
         <v>190527</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="4">
-        <v>20</v>
-      </c>
-      <c r="H7" s="8">
+      <c r="E7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="12">
+        <v>20</v>
+      </c>
+      <c r="H7" s="4">
         <v>400</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="12">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
         <v>190527</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="6" t="s">
+      <c r="E8" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="4">
-        <v>20</v>
-      </c>
-      <c r="H8" s="8">
+      <c r="G8" s="12">
+        <v>20</v>
+      </c>
+      <c r="H8" s="4">
         <v>400</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="12">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
         <v>190527</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="4">
-        <v>20</v>
-      </c>
-      <c r="H9" s="8">
+      <c r="E9" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="12">
+        <v>20</v>
+      </c>
+      <c r="H9" s="4">
         <v>400</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="12">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
         <v>190527</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="6" t="s">
+      <c r="E10" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="4">
-        <v>20</v>
-      </c>
-      <c r="H10" s="8">
+      <c r="G10" s="12">
+        <v>20</v>
+      </c>
+      <c r="H10" s="4">
         <v>400</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="12">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
         <v>190527</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="4">
-        <v>20</v>
-      </c>
-      <c r="H11" s="8">
+      <c r="E11" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="12">
+        <v>20</v>
+      </c>
+      <c r="H11" s="4">
         <v>400</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="12">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
         <v>180917</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="15" t="s">
+      <c r="C12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" s="4">
+      <c r="F12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="12">
         <v>16.8</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="4">
         <v>0</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="12">
         <v>16.8</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="12">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
         <v>180917</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="15" t="s">
+      <c r="C13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="12">
         <v>16.8</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="4">
         <v>0</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="12">
         <v>16.8</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
         <v>180917</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="15" t="s">
+      <c r="C14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G14" s="4">
+      <c r="F14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="12">
         <v>16.8</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="4">
         <v>0</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="12">
         <v>16.8</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
         <v>180917</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="15" t="s">
+      <c r="C15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="12">
         <v>16.8</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="4">
         <v>0</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="12">
         <v>16.8</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
         <v>180917</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="15" t="s">
+      <c r="C16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G16" s="4">
+      <c r="F16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="12">
         <v>16.8</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="4">
         <v>0</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="12">
         <v>16.8</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
         <v>180917</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="15" t="s">
+      <c r="C17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="12">
         <v>16.8</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="4">
         <v>0</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="12">
         <v>16.8</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="12">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
         <v>190530</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G18" s="4">
-        <v>20</v>
-      </c>
-      <c r="H18" s="8">
+      <c r="E18" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="12">
+        <v>20</v>
+      </c>
+      <c r="H18" s="4">
         <v>5</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="12">
         <v>9</v>
       </c>
-      <c r="J18" s="8">
+      <c r="J18" s="20">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="12">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
         <v>190530</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G19" s="4">
-        <v>20</v>
-      </c>
-      <c r="H19" s="8">
+      <c r="E19" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="12">
+        <v>20</v>
+      </c>
+      <c r="H19" s="4">
         <v>5</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="12">
         <v>9</v>
       </c>
-      <c r="J19" s="8">
+      <c r="J19" s="20">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="12">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
         <v>190530</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G20" s="4">
-        <v>20</v>
-      </c>
-      <c r="H20" s="8">
+      <c r="E20" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="12">
+        <v>20</v>
+      </c>
+      <c r="H20" s="4">
         <v>5</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="12">
         <v>9</v>
       </c>
-      <c r="J20" s="8">
+      <c r="J20" s="20">
         <v>9</v>
       </c>
     </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="14">
+        <v>190708</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="18">
+        <v>20</v>
+      </c>
+      <c r="H21" s="18">
+        <v>100</v>
+      </c>
+      <c r="I21" s="18">
+        <v>20</v>
+      </c>
+      <c r="J21" s="21">
+        <v>20</v>
+      </c>
+      <c r="K21" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="14">
+        <v>190708</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" s="18">
+        <v>20</v>
+      </c>
+      <c r="H22" s="18">
+        <v>100</v>
+      </c>
+      <c r="I22" s="18">
+        <v>20</v>
+      </c>
+      <c r="J22" s="21">
+        <v>20</v>
+      </c>
+      <c r="K22" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="14">
+        <v>190708</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" s="18">
+        <v>20</v>
+      </c>
+      <c r="H23" s="18">
+        <v>100</v>
+      </c>
+      <c r="I23" s="18">
+        <v>20</v>
+      </c>
+      <c r="J23" s="21">
+        <v>20</v>
+      </c>
+      <c r="K23" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="14">
+        <v>190708</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" s="18">
+        <v>20</v>
+      </c>
+      <c r="H24" s="18">
+        <v>100</v>
+      </c>
+      <c r="I24" s="18">
+        <v>20</v>
+      </c>
+      <c r="J24" s="21">
+        <v>20</v>
+      </c>
+      <c r="K24" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="24">
+        <v>190710</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" s="27">
+        <v>20</v>
+      </c>
+      <c r="H25" s="27">
+        <v>100</v>
+      </c>
+      <c r="I25" s="27">
+        <v>20</v>
+      </c>
+      <c r="J25" s="28">
+        <v>20</v>
+      </c>
+      <c r="K25" s="29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="24">
+        <v>190710</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" s="27">
+        <v>20</v>
+      </c>
+      <c r="H26" s="27">
+        <v>100</v>
+      </c>
+      <c r="I26" s="27">
+        <v>20</v>
+      </c>
+      <c r="J26" s="28">
+        <v>20</v>
+      </c>
+      <c r="K26" s="29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="24">
+        <v>190710</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27" s="27">
+        <v>20</v>
+      </c>
+      <c r="H27" s="27">
+        <v>100</v>
+      </c>
+      <c r="I27" s="27">
+        <v>20</v>
+      </c>
+      <c r="J27" s="28">
+        <v>20</v>
+      </c>
+      <c r="K27" s="29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="24">
+        <v>190710</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G28" s="27">
+        <v>20</v>
+      </c>
+      <c r="H28" s="27">
+        <v>100</v>
+      </c>
+      <c r="I28" s="27">
+        <v>20</v>
+      </c>
+      <c r="J28" s="28">
+        <v>20</v>
+      </c>
+      <c r="K28" s="29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="14">
+        <v>190712</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G29" s="18">
+        <v>20</v>
+      </c>
+      <c r="H29" s="18">
+        <v>100</v>
+      </c>
+      <c r="I29" s="18">
+        <v>20</v>
+      </c>
+      <c r="J29" s="21">
+        <v>20</v>
+      </c>
+      <c r="K29" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="14">
+        <v>190712</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G30" s="18">
+        <v>20</v>
+      </c>
+      <c r="H30" s="18">
+        <v>100</v>
+      </c>
+      <c r="I30" s="18">
+        <v>20</v>
+      </c>
+      <c r="J30" s="21">
+        <v>20</v>
+      </c>
+      <c r="K30" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="14">
+        <v>190712</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31" s="18">
+        <v>20</v>
+      </c>
+      <c r="H31" s="18">
+        <v>100</v>
+      </c>
+      <c r="I31" s="18">
+        <v>20</v>
+      </c>
+      <c r="J31" s="21">
+        <v>20</v>
+      </c>
+      <c r="K31" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="14">
+        <v>190712</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G32" s="18">
+        <v>20</v>
+      </c>
+      <c r="H32" s="18">
+        <v>100</v>
+      </c>
+      <c r="I32" s="18">
+        <v>20</v>
+      </c>
+      <c r="J32" s="21">
+        <v>20</v>
+      </c>
+      <c r="K32" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="24">
+        <v>190719</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G33" s="27">
+        <v>20</v>
+      </c>
+      <c r="H33" s="27">
+        <v>100</v>
+      </c>
+      <c r="I33" s="27">
+        <v>20</v>
+      </c>
+      <c r="J33" s="28">
+        <v>20</v>
+      </c>
+      <c r="K33" s="29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="24">
+        <v>190719</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F34" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G34" s="27">
+        <v>20</v>
+      </c>
+      <c r="H34" s="27">
+        <v>100</v>
+      </c>
+      <c r="I34" s="27">
+        <v>20</v>
+      </c>
+      <c r="J34" s="28">
+        <v>20</v>
+      </c>
+      <c r="K34" s="29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="24">
+        <v>190719</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E35" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G35" s="27">
+        <v>20</v>
+      </c>
+      <c r="H35" s="27">
+        <v>100</v>
+      </c>
+      <c r="I35" s="27">
+        <v>20</v>
+      </c>
+      <c r="J35" s="28">
+        <v>20</v>
+      </c>
+      <c r="K35" s="29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="24">
+        <v>190719</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E36" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F36" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G36" s="27">
+        <v>20</v>
+      </c>
+      <c r="H36" s="27">
+        <v>100</v>
+      </c>
+      <c r="I36" s="27">
+        <v>20</v>
+      </c>
+      <c r="J36" s="28">
+        <v>20</v>
+      </c>
+      <c r="K36" s="29" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="F1:F21 F37:F1048576">
+    <cfRule type="containsText" dxfId="31" priority="34" operator="containsText" text="fc">
+      <formula>NOT(ISERROR(SEARCH("fc",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="33" operator="containsText" text="stim">
+      <formula>NOT(ISERROR(SEARCH("stim",F1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22">
+    <cfRule type="containsText" dxfId="29" priority="31" operator="containsText" text="stim">
+      <formula>NOT(ISERROR(SEARCH("stim",F22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="28" priority="32" operator="containsText" text="fc">
+      <formula>NOT(ISERROR(SEARCH("fc",F22)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23">
+    <cfRule type="containsText" dxfId="27" priority="29" operator="containsText" text="stim">
+      <formula>NOT(ISERROR(SEARCH("stim",F23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="26" priority="30" operator="containsText" text="fc">
+      <formula>NOT(ISERROR(SEARCH("fc",F23)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24">
+    <cfRule type="containsText" dxfId="25" priority="27" operator="containsText" text="stim">
+      <formula>NOT(ISERROR(SEARCH("stim",F24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="24" priority="28" operator="containsText" text="fc">
+      <formula>NOT(ISERROR(SEARCH("fc",F24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F25">
+    <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="stim">
+      <formula>NOT(ISERROR(SEARCH("stim",F25)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="24" operator="containsText" text="fc">
+      <formula>NOT(ISERROR(SEARCH("fc",F25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F26">
+    <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="stim">
+      <formula>NOT(ISERROR(SEARCH("stim",F26)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="fc">
+      <formula>NOT(ISERROR(SEARCH("fc",F26)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F27">
+    <cfRule type="containsText" dxfId="19" priority="19" operator="containsText" text="stim">
+      <formula>NOT(ISERROR(SEARCH("stim",F27)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="20" operator="containsText" text="fc">
+      <formula>NOT(ISERROR(SEARCH("fc",F27)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F28">
+    <cfRule type="containsText" dxfId="17" priority="17" operator="containsText" text="stim">
+      <formula>NOT(ISERROR(SEARCH("stim",F28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="18" operator="containsText" text="fc">
+      <formula>NOT(ISERROR(SEARCH("fc",F28)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F29">
+    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="stim">
+      <formula>NOT(ISERROR(SEARCH("stim",F29)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="fc">
+      <formula>NOT(ISERROR(SEARCH("fc",F29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F30">
+    <cfRule type="containsText" dxfId="13" priority="13" operator="containsText" text="stim">
+      <formula>NOT(ISERROR(SEARCH("stim",F30)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="14" operator="containsText" text="fc">
+      <formula>NOT(ISERROR(SEARCH("fc",F30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F31">
+    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="stim">
+      <formula>NOT(ISERROR(SEARCH("stim",F31)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="fc">
+      <formula>NOT(ISERROR(SEARCH("fc",F31)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32">
+    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="stim">
+      <formula>NOT(ISERROR(SEARCH("stim",F32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="fc">
+      <formula>NOT(ISERROR(SEARCH("fc",F32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F33">
+    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="stim">
+      <formula>NOT(ISERROR(SEARCH("stim",F33)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="fc">
+      <formula>NOT(ISERROR(SEARCH("fc",F33)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F34">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="stim">
+      <formula>NOT(ISERROR(SEARCH("stim",F34)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="fc">
+      <formula>NOT(ISERROR(SEARCH("fc",F34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F35">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="stim">
+      <formula>NOT(ISERROR(SEARCH("stim",F35)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="fc">
+      <formula>NOT(ISERROR(SEARCH("fc",F35)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F36">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="stim">
+      <formula>NOT(ISERROR(SEARCH("stim",F36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="fc">
+      <formula>NOT(ISERROR(SEARCH("fc",F36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/excelFile.xlsx
+++ b/excelFile.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D2B261-7F66-41C2-A434-06A1154EB38D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F2B664-466A-4962-8DE9-510EB05A54B2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3795" yWindow="960" windowWidth="19920" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="64">
   <si>
     <t>Date</t>
   </si>
@@ -164,6 +164,60 @@
   </si>
   <si>
     <t>G75M4</t>
+  </si>
+  <si>
+    <t>1-week0</t>
+  </si>
+  <si>
+    <t>E:\Data_for_Kenny\Young_Animals\Young Week 0</t>
+  </si>
+  <si>
+    <t>D:\ProcessedData\AsherLag\BauerScripts</t>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+  </si>
+  <si>
+    <t>2-week0</t>
+  </si>
+  <si>
+    <t>4-week0</t>
+  </si>
+  <si>
+    <t>6-week0</t>
+  </si>
+  <si>
+    <t>7-week0</t>
+  </si>
+  <si>
+    <t>8-week0</t>
+  </si>
+  <si>
+    <t>E:\Data_for_Kenny\Young_Animals\Young_Week_0</t>
+  </si>
+  <si>
+    <t>442-week0</t>
+  </si>
+  <si>
+    <t>443-week0</t>
+  </si>
+  <si>
+    <t>446-week0</t>
+  </si>
+  <si>
+    <t>447-week0</t>
+  </si>
+  <si>
+    <t>578-week0</t>
+  </si>
+  <si>
+    <t>G11M2-awake</t>
+  </si>
+  <si>
+    <t>F:\fromXiaodan\Processed</t>
+  </si>
+  <si>
+    <t>F:\fromXiaodan</t>
   </si>
 </sst>
 </file>
@@ -200,7 +254,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -246,6 +300,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,7 +389,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -372,11 +438,240 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="74">
+    <dxf>
+      <font>
+        <color rgb="FF124E13"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFBC0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF124E13"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFBC0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF124E13"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFBC0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF124E13"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFBC0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF124E13"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFBC0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF124E13"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFBC0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF124E13"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFBC0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF124E13"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFBC0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF124E13"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFBC0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF124E13"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFBC0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF124E13"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFBC0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF124E13"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFBC0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF124E13"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFBC0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF124E13"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFBC0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF124E13"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFBC0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF124E13"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFBC0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF124E13"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFBC0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF124E13"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFBC0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF124E13"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFBC0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF124E13"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFBC0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF124E13"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFBC0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF124E13"/>
@@ -823,18 +1118,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:K59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C44" sqref="C44"/>
+      <selection pane="bottomRight" activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.85546875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="46.7109375" style="8" customWidth="1"/>
     <col min="5" max="5" width="17.28515625" style="10" customWidth="1"/>
     <col min="6" max="6" width="17.28515625" style="2" customWidth="1"/>
@@ -2002,133 +2298,1098 @@
         <v>36</v>
       </c>
     </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="30">
+        <v>181116</v>
+      </c>
+      <c r="B37" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="D37" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="E37" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F37" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G37" s="33">
+        <v>16.8</v>
+      </c>
+      <c r="H37" s="33">
+        <v>0</v>
+      </c>
+      <c r="I37" s="33">
+        <v>16.8</v>
+      </c>
+      <c r="J37" s="33">
+        <v>16.8</v>
+      </c>
+      <c r="K37" s="34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="30">
+        <v>181116</v>
+      </c>
+      <c r="B38" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="E38" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F38" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="G38" s="33">
+        <v>16.8</v>
+      </c>
+      <c r="H38" s="33">
+        <v>0</v>
+      </c>
+      <c r="I38" s="33">
+        <v>16.8</v>
+      </c>
+      <c r="J38" s="33">
+        <v>16.8</v>
+      </c>
+      <c r="K38" s="34" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="30">
+        <v>181116</v>
+      </c>
+      <c r="B39" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="E39" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F39" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G39" s="33">
+        <v>16.8</v>
+      </c>
+      <c r="H39" s="33">
+        <v>0</v>
+      </c>
+      <c r="I39" s="33">
+        <v>16.8</v>
+      </c>
+      <c r="J39" s="33">
+        <v>16.8</v>
+      </c>
+      <c r="K39" s="34" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="30">
+        <v>181116</v>
+      </c>
+      <c r="B40" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="E40" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F40" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="G40" s="33">
+        <v>16.8</v>
+      </c>
+      <c r="H40" s="33">
+        <v>0</v>
+      </c>
+      <c r="I40" s="33">
+        <v>16.8</v>
+      </c>
+      <c r="J40" s="33">
+        <v>16.8</v>
+      </c>
+      <c r="K40" s="34" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="30">
+        <v>181116</v>
+      </c>
+      <c r="B41" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="E41" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F41" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G41" s="33">
+        <v>16.8</v>
+      </c>
+      <c r="H41" s="33">
+        <v>0</v>
+      </c>
+      <c r="I41" s="33">
+        <v>16.8</v>
+      </c>
+      <c r="J41" s="33">
+        <v>16.8</v>
+      </c>
+      <c r="K41" s="34" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="30">
+        <v>181116</v>
+      </c>
+      <c r="B42" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="E42" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F42" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" s="33">
+        <v>16.8</v>
+      </c>
+      <c r="H42" s="33">
+        <v>0</v>
+      </c>
+      <c r="I42" s="33">
+        <v>16.8</v>
+      </c>
+      <c r="J42" s="33">
+        <v>16.8</v>
+      </c>
+      <c r="K42" s="34" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="30">
+        <v>181116</v>
+      </c>
+      <c r="B43" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="D43" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="E43" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F43" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G43" s="33">
+        <v>16.8</v>
+      </c>
+      <c r="H43" s="33">
+        <v>0</v>
+      </c>
+      <c r="I43" s="33">
+        <v>16.8</v>
+      </c>
+      <c r="J43" s="33">
+        <v>16.8</v>
+      </c>
+      <c r="K43" s="34" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="30">
+        <v>181116</v>
+      </c>
+      <c r="B44" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="D44" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="E44" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F44" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="G44" s="33">
+        <v>16.8</v>
+      </c>
+      <c r="H44" s="33">
+        <v>0</v>
+      </c>
+      <c r="I44" s="33">
+        <v>16.8</v>
+      </c>
+      <c r="J44" s="33">
+        <v>16.8</v>
+      </c>
+      <c r="K44" s="34" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="30">
+        <v>181116</v>
+      </c>
+      <c r="B45" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="D45" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="E45" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F45" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G45" s="33">
+        <v>16.8</v>
+      </c>
+      <c r="H45" s="33">
+        <v>0</v>
+      </c>
+      <c r="I45" s="33">
+        <v>16.8</v>
+      </c>
+      <c r="J45" s="33">
+        <v>16.8</v>
+      </c>
+      <c r="K45" s="34" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="30">
+        <v>181116</v>
+      </c>
+      <c r="B46" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="D46" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="E46" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F46" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="G46" s="33">
+        <v>16.8</v>
+      </c>
+      <c r="H46" s="33">
+        <v>0</v>
+      </c>
+      <c r="I46" s="33">
+        <v>16.8</v>
+      </c>
+      <c r="J46" s="33">
+        <v>16.8</v>
+      </c>
+      <c r="K46" s="34" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="30">
+        <v>181116</v>
+      </c>
+      <c r="B47" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C47" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="D47" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="E47" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F47" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G47" s="33">
+        <v>16.8</v>
+      </c>
+      <c r="H47" s="33">
+        <v>0</v>
+      </c>
+      <c r="I47" s="33">
+        <v>16.8</v>
+      </c>
+      <c r="J47" s="33">
+        <v>16.8</v>
+      </c>
+      <c r="K47" s="34" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="30">
+        <v>181116</v>
+      </c>
+      <c r="B48" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="D48" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="E48" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F48" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48" s="33">
+        <v>16.8</v>
+      </c>
+      <c r="H48" s="33">
+        <v>0</v>
+      </c>
+      <c r="I48" s="33">
+        <v>16.8</v>
+      </c>
+      <c r="J48" s="33">
+        <v>16.8</v>
+      </c>
+      <c r="K48" s="34" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="40">
+        <v>180918</v>
+      </c>
+      <c r="B49" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="C49" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="E49" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="F49" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="G49" s="37">
+        <v>16.8</v>
+      </c>
+      <c r="H49" s="37">
+        <v>0</v>
+      </c>
+      <c r="I49" s="37">
+        <v>16.8</v>
+      </c>
+      <c r="J49" s="38">
+        <v>16.8</v>
+      </c>
+      <c r="K49" s="39" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="40">
+        <v>180918</v>
+      </c>
+      <c r="B50" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D50" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="E50" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="F50" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="G50" s="37">
+        <v>16.8</v>
+      </c>
+      <c r="H50" s="37">
+        <v>0</v>
+      </c>
+      <c r="I50" s="37">
+        <v>16.8</v>
+      </c>
+      <c r="J50" s="38">
+        <v>16.8</v>
+      </c>
+      <c r="K50" s="39" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="40">
+        <v>180918</v>
+      </c>
+      <c r="B51" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="C51" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D51" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="E51" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="F51" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="G51" s="37">
+        <v>16.8</v>
+      </c>
+      <c r="H51" s="37">
+        <v>0</v>
+      </c>
+      <c r="I51" s="37">
+        <v>16.8</v>
+      </c>
+      <c r="J51" s="38">
+        <v>16.8</v>
+      </c>
+      <c r="K51" s="39" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="40">
+        <v>180918</v>
+      </c>
+      <c r="B52" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="C52" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D52" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="E52" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="F52" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52" s="37">
+        <v>16.8</v>
+      </c>
+      <c r="H52" s="37">
+        <v>0</v>
+      </c>
+      <c r="I52" s="37">
+        <v>16.8</v>
+      </c>
+      <c r="J52" s="38">
+        <v>16.8</v>
+      </c>
+      <c r="K52" s="39" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="40">
+        <v>180918</v>
+      </c>
+      <c r="B53" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="C53" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D53" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="E53" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="F53" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="G53" s="37">
+        <v>16.8</v>
+      </c>
+      <c r="H53" s="37">
+        <v>0</v>
+      </c>
+      <c r="I53" s="37">
+        <v>16.8</v>
+      </c>
+      <c r="J53" s="38">
+        <v>16.8</v>
+      </c>
+      <c r="K53" s="39" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="40">
+        <v>180918</v>
+      </c>
+      <c r="B54" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D54" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="E54" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="F54" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="G54" s="37">
+        <v>16.8</v>
+      </c>
+      <c r="H54" s="37">
+        <v>0</v>
+      </c>
+      <c r="I54" s="37">
+        <v>16.8</v>
+      </c>
+      <c r="J54" s="38">
+        <v>16.8</v>
+      </c>
+      <c r="K54" s="39" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="40">
+        <v>180918</v>
+      </c>
+      <c r="B55" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="C55" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D55" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="E55" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="F55" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="G55" s="37">
+        <v>16.8</v>
+      </c>
+      <c r="H55" s="37">
+        <v>0</v>
+      </c>
+      <c r="I55" s="37">
+        <v>16.8</v>
+      </c>
+      <c r="J55" s="38">
+        <v>16.8</v>
+      </c>
+      <c r="K55" s="39" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="40">
+        <v>180918</v>
+      </c>
+      <c r="B56" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="C56" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D56" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="E56" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="F56" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="G56" s="37">
+        <v>16.8</v>
+      </c>
+      <c r="H56" s="37">
+        <v>0</v>
+      </c>
+      <c r="I56" s="37">
+        <v>16.8</v>
+      </c>
+      <c r="J56" s="38">
+        <v>16.8</v>
+      </c>
+      <c r="K56" s="39" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="40">
+        <v>180918</v>
+      </c>
+      <c r="B57" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="C57" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D57" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="E57" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="F57" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="G57" s="37">
+        <v>16.8</v>
+      </c>
+      <c r="H57" s="37">
+        <v>0</v>
+      </c>
+      <c r="I57" s="37">
+        <v>16.8</v>
+      </c>
+      <c r="J57" s="38">
+        <v>16.8</v>
+      </c>
+      <c r="K57" s="39" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="40">
+        <v>180918</v>
+      </c>
+      <c r="B58" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="C58" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D58" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="E58" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="F58" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="G58" s="37">
+        <v>16.8</v>
+      </c>
+      <c r="H58" s="37">
+        <v>0</v>
+      </c>
+      <c r="I58" s="37">
+        <v>16.8</v>
+      </c>
+      <c r="J58" s="38">
+        <v>16.8</v>
+      </c>
+      <c r="K58" s="39" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="6">
+        <v>190523</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G59" s="12">
+        <v>20</v>
+      </c>
+      <c r="H59" s="4">
+        <v>20</v>
+      </c>
+      <c r="I59" s="12">
+        <v>20</v>
+      </c>
+      <c r="J59" s="20">
+        <v>20</v>
+      </c>
+      <c r="K59" s="23">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="F1:F21 F37:F1048576">
-    <cfRule type="containsText" dxfId="31" priority="34" operator="containsText" text="fc">
+  <conditionalFormatting sqref="F1:F21 F37 F49 F59:F1048576">
+    <cfRule type="containsText" dxfId="73" priority="74" operator="containsText" text="fc">
       <formula>NOT(ISERROR(SEARCH("fc",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="33" operator="containsText" text="stim">
+    <cfRule type="containsText" dxfId="72" priority="73" operator="containsText" text="stim">
       <formula>NOT(ISERROR(SEARCH("stim",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="containsText" dxfId="29" priority="31" operator="containsText" text="stim">
+    <cfRule type="containsText" dxfId="71" priority="71" operator="containsText" text="stim">
       <formula>NOT(ISERROR(SEARCH("stim",F22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="32" operator="containsText" text="fc">
+    <cfRule type="containsText" dxfId="70" priority="72" operator="containsText" text="fc">
       <formula>NOT(ISERROR(SEARCH("fc",F22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="containsText" dxfId="27" priority="29" operator="containsText" text="stim">
+    <cfRule type="containsText" dxfId="69" priority="69" operator="containsText" text="stim">
       <formula>NOT(ISERROR(SEARCH("stim",F23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="30" operator="containsText" text="fc">
+    <cfRule type="containsText" dxfId="68" priority="70" operator="containsText" text="fc">
       <formula>NOT(ISERROR(SEARCH("fc",F23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="containsText" dxfId="25" priority="27" operator="containsText" text="stim">
+    <cfRule type="containsText" dxfId="67" priority="67" operator="containsText" text="stim">
       <formula>NOT(ISERROR(SEARCH("stim",F24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="28" operator="containsText" text="fc">
+    <cfRule type="containsText" dxfId="66" priority="68" operator="containsText" text="fc">
       <formula>NOT(ISERROR(SEARCH("fc",F24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="stim">
+    <cfRule type="containsText" dxfId="65" priority="63" operator="containsText" text="stim">
       <formula>NOT(ISERROR(SEARCH("stim",F25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="24" operator="containsText" text="fc">
+    <cfRule type="containsText" dxfId="64" priority="64" operator="containsText" text="fc">
       <formula>NOT(ISERROR(SEARCH("fc",F25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26">
-    <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="stim">
+    <cfRule type="containsText" dxfId="63" priority="61" operator="containsText" text="stim">
       <formula>NOT(ISERROR(SEARCH("stim",F26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="fc">
+    <cfRule type="containsText" dxfId="62" priority="62" operator="containsText" text="fc">
       <formula>NOT(ISERROR(SEARCH("fc",F26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="containsText" dxfId="19" priority="19" operator="containsText" text="stim">
+    <cfRule type="containsText" dxfId="61" priority="59" operator="containsText" text="stim">
       <formula>NOT(ISERROR(SEARCH("stim",F27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="20" operator="containsText" text="fc">
+    <cfRule type="containsText" dxfId="60" priority="60" operator="containsText" text="fc">
       <formula>NOT(ISERROR(SEARCH("fc",F27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="containsText" dxfId="17" priority="17" operator="containsText" text="stim">
+    <cfRule type="containsText" dxfId="59" priority="57" operator="containsText" text="stim">
       <formula>NOT(ISERROR(SEARCH("stim",F28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="18" operator="containsText" text="fc">
+    <cfRule type="containsText" dxfId="58" priority="58" operator="containsText" text="fc">
       <formula>NOT(ISERROR(SEARCH("fc",F28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="stim">
+    <cfRule type="containsText" dxfId="57" priority="55" operator="containsText" text="stim">
       <formula>NOT(ISERROR(SEARCH("stim",F29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="fc">
+    <cfRule type="containsText" dxfId="56" priority="56" operator="containsText" text="fc">
       <formula>NOT(ISERROR(SEARCH("fc",F29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="containsText" dxfId="13" priority="13" operator="containsText" text="stim">
+    <cfRule type="containsText" dxfId="55" priority="53" operator="containsText" text="stim">
       <formula>NOT(ISERROR(SEARCH("stim",F30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="14" operator="containsText" text="fc">
+    <cfRule type="containsText" dxfId="54" priority="54" operator="containsText" text="fc">
       <formula>NOT(ISERROR(SEARCH("fc",F30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31">
-    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="stim">
+    <cfRule type="containsText" dxfId="53" priority="51" operator="containsText" text="stim">
       <formula>NOT(ISERROR(SEARCH("stim",F31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="fc">
+    <cfRule type="containsText" dxfId="52" priority="52" operator="containsText" text="fc">
       <formula>NOT(ISERROR(SEARCH("fc",F31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="stim">
+    <cfRule type="containsText" dxfId="51" priority="49" operator="containsText" text="stim">
       <formula>NOT(ISERROR(SEARCH("stim",F32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="fc">
+    <cfRule type="containsText" dxfId="50" priority="50" operator="containsText" text="fc">
       <formula>NOT(ISERROR(SEARCH("fc",F32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="stim">
+    <cfRule type="containsText" dxfId="49" priority="47" operator="containsText" text="stim">
       <formula>NOT(ISERROR(SEARCH("stim",F33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="fc">
+    <cfRule type="containsText" dxfId="48" priority="48" operator="containsText" text="fc">
       <formula>NOT(ISERROR(SEARCH("fc",F33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="stim">
+    <cfRule type="containsText" dxfId="47" priority="45" operator="containsText" text="stim">
       <formula>NOT(ISERROR(SEARCH("stim",F34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="fc">
+    <cfRule type="containsText" dxfId="46" priority="46" operator="containsText" text="fc">
       <formula>NOT(ISERROR(SEARCH("fc",F34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="stim">
+    <cfRule type="containsText" dxfId="45" priority="43" operator="containsText" text="stim">
       <formula>NOT(ISERROR(SEARCH("stim",F35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="fc">
+    <cfRule type="containsText" dxfId="44" priority="44" operator="containsText" text="fc">
       <formula>NOT(ISERROR(SEARCH("fc",F35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="stim">
+    <cfRule type="containsText" dxfId="43" priority="41" operator="containsText" text="stim">
       <formula>NOT(ISERROR(SEARCH("stim",F36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="fc">
+    <cfRule type="containsText" dxfId="42" priority="42" operator="containsText" text="fc">
       <formula>NOT(ISERROR(SEARCH("fc",F36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38">
+    <cfRule type="containsText" dxfId="41" priority="39" operator="containsText" text="stim">
+      <formula>NOT(ISERROR(SEARCH("stim",F38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="40" priority="40" operator="containsText" text="fc">
+      <formula>NOT(ISERROR(SEARCH("fc",F38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39">
+    <cfRule type="containsText" dxfId="39" priority="37" operator="containsText" text="stim">
+      <formula>NOT(ISERROR(SEARCH("stim",F39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="38" priority="38" operator="containsText" text="fc">
+      <formula>NOT(ISERROR(SEARCH("fc",F39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F40">
+    <cfRule type="containsText" dxfId="37" priority="35" operator="containsText" text="stim">
+      <formula>NOT(ISERROR(SEARCH("stim",F40)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="36" priority="36" operator="containsText" text="fc">
+      <formula>NOT(ISERROR(SEARCH("fc",F40)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F41">
+    <cfRule type="containsText" dxfId="35" priority="33" operator="containsText" text="stim">
+      <formula>NOT(ISERROR(SEARCH("stim",F41)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="34" priority="34" operator="containsText" text="fc">
+      <formula>NOT(ISERROR(SEARCH("fc",F41)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F42">
+    <cfRule type="containsText" dxfId="33" priority="31" operator="containsText" text="stim">
+      <formula>NOT(ISERROR(SEARCH("stim",F42)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="32" priority="32" operator="containsText" text="fc">
+      <formula>NOT(ISERROR(SEARCH("fc",F42)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F43">
+    <cfRule type="containsText" dxfId="31" priority="29" operator="containsText" text="stim">
+      <formula>NOT(ISERROR(SEARCH("stim",F43)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="30" operator="containsText" text="fc">
+      <formula>NOT(ISERROR(SEARCH("fc",F43)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F44">
+    <cfRule type="containsText" dxfId="29" priority="27" operator="containsText" text="stim">
+      <formula>NOT(ISERROR(SEARCH("stim",F44)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="28" priority="28" operator="containsText" text="fc">
+      <formula>NOT(ISERROR(SEARCH("fc",F44)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F45">
+    <cfRule type="containsText" dxfId="27" priority="25" operator="containsText" text="stim">
+      <formula>NOT(ISERROR(SEARCH("stim",F45)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="26" priority="26" operator="containsText" text="fc">
+      <formula>NOT(ISERROR(SEARCH("fc",F45)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F46">
+    <cfRule type="containsText" dxfId="25" priority="23" operator="containsText" text="stim">
+      <formula>NOT(ISERROR(SEARCH("stim",F46)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="24" priority="24" operator="containsText" text="fc">
+      <formula>NOT(ISERROR(SEARCH("fc",F46)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F47">
+    <cfRule type="containsText" dxfId="23" priority="21" operator="containsText" text="stim">
+      <formula>NOT(ISERROR(SEARCH("stim",F47)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="22" operator="containsText" text="fc">
+      <formula>NOT(ISERROR(SEARCH("fc",F47)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F48">
+    <cfRule type="containsText" dxfId="21" priority="19" operator="containsText" text="stim">
+      <formula>NOT(ISERROR(SEARCH("stim",F48)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="20" priority="20" operator="containsText" text="fc">
+      <formula>NOT(ISERROR(SEARCH("fc",F48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F50">
+    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="stim">
+      <formula>NOT(ISERROR(SEARCH("stim",F50)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="18" operator="containsText" text="fc">
+      <formula>NOT(ISERROR(SEARCH("fc",F50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F51">
+    <cfRule type="containsText" dxfId="17" priority="15" operator="containsText" text="stim">
+      <formula>NOT(ISERROR(SEARCH("stim",F51)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="16" operator="containsText" text="fc">
+      <formula>NOT(ISERROR(SEARCH("fc",F51)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F52">
+    <cfRule type="containsText" dxfId="15" priority="13" operator="containsText" text="stim">
+      <formula>NOT(ISERROR(SEARCH("stim",F52)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="14" operator="containsText" text="fc">
+      <formula>NOT(ISERROR(SEARCH("fc",F52)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F53">
+    <cfRule type="containsText" dxfId="13" priority="11" operator="containsText" text="stim">
+      <formula>NOT(ISERROR(SEARCH("stim",F53)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="12" operator="containsText" text="fc">
+      <formula>NOT(ISERROR(SEARCH("fc",F53)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F54">
+    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="stim">
+      <formula>NOT(ISERROR(SEARCH("stim",F54)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="fc">
+      <formula>NOT(ISERROR(SEARCH("fc",F54)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F55">
+    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="stim">
+      <formula>NOT(ISERROR(SEARCH("stim",F55)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="8" operator="containsText" text="fc">
+      <formula>NOT(ISERROR(SEARCH("fc",F55)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F56">
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="stim">
+      <formula>NOT(ISERROR(SEARCH("stim",F56)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="fc">
+      <formula>NOT(ISERROR(SEARCH("fc",F56)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F57">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="stim">
+      <formula>NOT(ISERROR(SEARCH("stim",F57)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="fc">
+      <formula>NOT(ISERROR(SEARCH("fc",F57)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F58">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="stim">
+      <formula>NOT(ISERROR(SEARCH("stim",F58)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="fc">
+      <formula>NOT(ISERROR(SEARCH("fc",F58)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excelFile.xlsx
+++ b/excelFile.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F2B664-466A-4962-8DE9-510EB05A54B2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E88A1B82-307A-4D55-B1A5-913C7C9B3CA0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3795" yWindow="960" windowWidth="19920" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="65">
   <si>
     <t>Date</t>
   </si>
@@ -214,10 +214,13 @@
     <t>G11M2-awake</t>
   </si>
   <si>
-    <t>F:\fromXiaodan\Processed</t>
-  </si>
-  <si>
-    <t>F:\fromXiaodan</t>
+    <t>G26M4</t>
+  </si>
+  <si>
+    <t>D:\ProcessedData\TestData</t>
+  </si>
+  <si>
+    <t>C:\Users\Nischal\Documents\QuickTestData</t>
   </si>
 </sst>
 </file>
@@ -461,17 +464,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="74">
-    <dxf>
-      <font>
-        <color rgb="FF124E13"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFBC0000"/>
-      </font>
-    </dxf>
+  <dxfs count="72">
     <dxf>
       <font>
         <color rgb="FF124E13"/>
@@ -1118,13 +1111,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K59"/>
+  <dimension ref="A1:K60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C62" sqref="C62"/>
+      <selection pane="bottomRight" activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3076,10 +3069,10 @@
         <v>61</v>
       </c>
       <c r="C59" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D59" s="8" t="s">
         <v>63</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>62</v>
       </c>
       <c r="E59" s="10" t="s">
         <v>4</v>
@@ -3103,292 +3096,327 @@
         <v>1</v>
       </c>
     </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="6">
+        <v>190905</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G60" s="12">
+        <v>20</v>
+      </c>
+      <c r="H60" s="4">
+        <v>100</v>
+      </c>
+      <c r="I60" s="12">
+        <v>9</v>
+      </c>
+      <c r="J60" s="20">
+        <v>9</v>
+      </c>
+      <c r="K60" s="23">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F21 F37 F49 F59:F1048576">
-    <cfRule type="containsText" dxfId="73" priority="74" operator="containsText" text="fc">
+    <cfRule type="containsText" dxfId="71" priority="74" operator="containsText" text="fc">
       <formula>NOT(ISERROR(SEARCH("fc",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="73" operator="containsText" text="stim">
+    <cfRule type="containsText" dxfId="70" priority="73" operator="containsText" text="stim">
       <formula>NOT(ISERROR(SEARCH("stim",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="containsText" dxfId="71" priority="71" operator="containsText" text="stim">
+    <cfRule type="containsText" dxfId="69" priority="71" operator="containsText" text="stim">
       <formula>NOT(ISERROR(SEARCH("stim",F22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="72" operator="containsText" text="fc">
+    <cfRule type="containsText" dxfId="68" priority="72" operator="containsText" text="fc">
       <formula>NOT(ISERROR(SEARCH("fc",F22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="containsText" dxfId="69" priority="69" operator="containsText" text="stim">
+    <cfRule type="containsText" dxfId="67" priority="69" operator="containsText" text="stim">
       <formula>NOT(ISERROR(SEARCH("stim",F23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="70" operator="containsText" text="fc">
+    <cfRule type="containsText" dxfId="66" priority="70" operator="containsText" text="fc">
       <formula>NOT(ISERROR(SEARCH("fc",F23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="containsText" dxfId="67" priority="67" operator="containsText" text="stim">
+    <cfRule type="containsText" dxfId="65" priority="67" operator="containsText" text="stim">
       <formula>NOT(ISERROR(SEARCH("stim",F24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="68" operator="containsText" text="fc">
+    <cfRule type="containsText" dxfId="64" priority="68" operator="containsText" text="fc">
       <formula>NOT(ISERROR(SEARCH("fc",F24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="containsText" dxfId="65" priority="63" operator="containsText" text="stim">
+    <cfRule type="containsText" dxfId="63" priority="63" operator="containsText" text="stim">
       <formula>NOT(ISERROR(SEARCH("stim",F25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="64" operator="containsText" text="fc">
+    <cfRule type="containsText" dxfId="62" priority="64" operator="containsText" text="fc">
       <formula>NOT(ISERROR(SEARCH("fc",F25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26">
-    <cfRule type="containsText" dxfId="63" priority="61" operator="containsText" text="stim">
+    <cfRule type="containsText" dxfId="61" priority="61" operator="containsText" text="stim">
       <formula>NOT(ISERROR(SEARCH("stim",F26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="62" operator="containsText" text="fc">
+    <cfRule type="containsText" dxfId="60" priority="62" operator="containsText" text="fc">
       <formula>NOT(ISERROR(SEARCH("fc",F26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="containsText" dxfId="61" priority="59" operator="containsText" text="stim">
+    <cfRule type="containsText" dxfId="59" priority="59" operator="containsText" text="stim">
       <formula>NOT(ISERROR(SEARCH("stim",F27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="60" operator="containsText" text="fc">
+    <cfRule type="containsText" dxfId="58" priority="60" operator="containsText" text="fc">
       <formula>NOT(ISERROR(SEARCH("fc",F27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="containsText" dxfId="59" priority="57" operator="containsText" text="stim">
+    <cfRule type="containsText" dxfId="57" priority="57" operator="containsText" text="stim">
       <formula>NOT(ISERROR(SEARCH("stim",F28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="58" operator="containsText" text="fc">
+    <cfRule type="containsText" dxfId="56" priority="58" operator="containsText" text="fc">
       <formula>NOT(ISERROR(SEARCH("fc",F28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="containsText" dxfId="57" priority="55" operator="containsText" text="stim">
+    <cfRule type="containsText" dxfId="55" priority="55" operator="containsText" text="stim">
       <formula>NOT(ISERROR(SEARCH("stim",F29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="56" operator="containsText" text="fc">
+    <cfRule type="containsText" dxfId="54" priority="56" operator="containsText" text="fc">
       <formula>NOT(ISERROR(SEARCH("fc",F29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="containsText" dxfId="55" priority="53" operator="containsText" text="stim">
+    <cfRule type="containsText" dxfId="53" priority="53" operator="containsText" text="stim">
       <formula>NOT(ISERROR(SEARCH("stim",F30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="54" operator="containsText" text="fc">
+    <cfRule type="containsText" dxfId="52" priority="54" operator="containsText" text="fc">
       <formula>NOT(ISERROR(SEARCH("fc",F30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31">
-    <cfRule type="containsText" dxfId="53" priority="51" operator="containsText" text="stim">
+    <cfRule type="containsText" dxfId="51" priority="51" operator="containsText" text="stim">
       <formula>NOT(ISERROR(SEARCH("stim",F31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="52" operator="containsText" text="fc">
+    <cfRule type="containsText" dxfId="50" priority="52" operator="containsText" text="fc">
       <formula>NOT(ISERROR(SEARCH("fc",F31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="containsText" dxfId="51" priority="49" operator="containsText" text="stim">
+    <cfRule type="containsText" dxfId="49" priority="49" operator="containsText" text="stim">
       <formula>NOT(ISERROR(SEARCH("stim",F32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="50" operator="containsText" text="fc">
+    <cfRule type="containsText" dxfId="48" priority="50" operator="containsText" text="fc">
       <formula>NOT(ISERROR(SEARCH("fc",F32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="containsText" dxfId="49" priority="47" operator="containsText" text="stim">
+    <cfRule type="containsText" dxfId="47" priority="47" operator="containsText" text="stim">
       <formula>NOT(ISERROR(SEARCH("stim",F33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="48" operator="containsText" text="fc">
+    <cfRule type="containsText" dxfId="46" priority="48" operator="containsText" text="fc">
       <formula>NOT(ISERROR(SEARCH("fc",F33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34">
-    <cfRule type="containsText" dxfId="47" priority="45" operator="containsText" text="stim">
+    <cfRule type="containsText" dxfId="45" priority="45" operator="containsText" text="stim">
       <formula>NOT(ISERROR(SEARCH("stim",F34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="46" operator="containsText" text="fc">
+    <cfRule type="containsText" dxfId="44" priority="46" operator="containsText" text="fc">
       <formula>NOT(ISERROR(SEARCH("fc",F34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="containsText" dxfId="45" priority="43" operator="containsText" text="stim">
+    <cfRule type="containsText" dxfId="43" priority="43" operator="containsText" text="stim">
       <formula>NOT(ISERROR(SEARCH("stim",F35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="44" operator="containsText" text="fc">
+    <cfRule type="containsText" dxfId="42" priority="44" operator="containsText" text="fc">
       <formula>NOT(ISERROR(SEARCH("fc",F35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36">
-    <cfRule type="containsText" dxfId="43" priority="41" operator="containsText" text="stim">
+    <cfRule type="containsText" dxfId="41" priority="41" operator="containsText" text="stim">
       <formula>NOT(ISERROR(SEARCH("stim",F36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="42" operator="containsText" text="fc">
+    <cfRule type="containsText" dxfId="40" priority="42" operator="containsText" text="fc">
       <formula>NOT(ISERROR(SEARCH("fc",F36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F38">
-    <cfRule type="containsText" dxfId="41" priority="39" operator="containsText" text="stim">
+    <cfRule type="containsText" dxfId="39" priority="39" operator="containsText" text="stim">
       <formula>NOT(ISERROR(SEARCH("stim",F38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="40" operator="containsText" text="fc">
+    <cfRule type="containsText" dxfId="38" priority="40" operator="containsText" text="fc">
       <formula>NOT(ISERROR(SEARCH("fc",F38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F39">
-    <cfRule type="containsText" dxfId="39" priority="37" operator="containsText" text="stim">
+    <cfRule type="containsText" dxfId="37" priority="37" operator="containsText" text="stim">
       <formula>NOT(ISERROR(SEARCH("stim",F39)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="38" operator="containsText" text="fc">
+    <cfRule type="containsText" dxfId="36" priority="38" operator="containsText" text="fc">
       <formula>NOT(ISERROR(SEARCH("fc",F39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F40">
-    <cfRule type="containsText" dxfId="37" priority="35" operator="containsText" text="stim">
+    <cfRule type="containsText" dxfId="35" priority="35" operator="containsText" text="stim">
       <formula>NOT(ISERROR(SEARCH("stim",F40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="36" operator="containsText" text="fc">
+    <cfRule type="containsText" dxfId="34" priority="36" operator="containsText" text="fc">
       <formula>NOT(ISERROR(SEARCH("fc",F40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F41">
-    <cfRule type="containsText" dxfId="35" priority="33" operator="containsText" text="stim">
+    <cfRule type="containsText" dxfId="33" priority="33" operator="containsText" text="stim">
       <formula>NOT(ISERROR(SEARCH("stim",F41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="34" operator="containsText" text="fc">
+    <cfRule type="containsText" dxfId="32" priority="34" operator="containsText" text="fc">
       <formula>NOT(ISERROR(SEARCH("fc",F41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42">
-    <cfRule type="containsText" dxfId="33" priority="31" operator="containsText" text="stim">
+    <cfRule type="containsText" dxfId="31" priority="31" operator="containsText" text="stim">
       <formula>NOT(ISERROR(SEARCH("stim",F42)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="32" operator="containsText" text="fc">
+    <cfRule type="containsText" dxfId="30" priority="32" operator="containsText" text="fc">
       <formula>NOT(ISERROR(SEARCH("fc",F42)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43">
-    <cfRule type="containsText" dxfId="31" priority="29" operator="containsText" text="stim">
+    <cfRule type="containsText" dxfId="29" priority="29" operator="containsText" text="stim">
       <formula>NOT(ISERROR(SEARCH("stim",F43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="30" operator="containsText" text="fc">
+    <cfRule type="containsText" dxfId="28" priority="30" operator="containsText" text="fc">
       <formula>NOT(ISERROR(SEARCH("fc",F43)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44">
-    <cfRule type="containsText" dxfId="29" priority="27" operator="containsText" text="stim">
+    <cfRule type="containsText" dxfId="27" priority="27" operator="containsText" text="stim">
       <formula>NOT(ISERROR(SEARCH("stim",F44)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="28" operator="containsText" text="fc">
+    <cfRule type="containsText" dxfId="26" priority="28" operator="containsText" text="fc">
       <formula>NOT(ISERROR(SEARCH("fc",F44)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45">
-    <cfRule type="containsText" dxfId="27" priority="25" operator="containsText" text="stim">
+    <cfRule type="containsText" dxfId="25" priority="25" operator="containsText" text="stim">
       <formula>NOT(ISERROR(SEARCH("stim",F45)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="26" operator="containsText" text="fc">
+    <cfRule type="containsText" dxfId="24" priority="26" operator="containsText" text="fc">
       <formula>NOT(ISERROR(SEARCH("fc",F45)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46">
-    <cfRule type="containsText" dxfId="25" priority="23" operator="containsText" text="stim">
+    <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="stim">
       <formula>NOT(ISERROR(SEARCH("stim",F46)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="24" operator="containsText" text="fc">
+    <cfRule type="containsText" dxfId="22" priority="24" operator="containsText" text="fc">
       <formula>NOT(ISERROR(SEARCH("fc",F46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47">
-    <cfRule type="containsText" dxfId="23" priority="21" operator="containsText" text="stim">
+    <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="stim">
       <formula>NOT(ISERROR(SEARCH("stim",F47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="22" operator="containsText" text="fc">
+    <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="fc">
       <formula>NOT(ISERROR(SEARCH("fc",F47)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48">
-    <cfRule type="containsText" dxfId="21" priority="19" operator="containsText" text="stim">
+    <cfRule type="containsText" dxfId="19" priority="19" operator="containsText" text="stim">
       <formula>NOT(ISERROR(SEARCH("stim",F48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="20" operator="containsText" text="fc">
+    <cfRule type="containsText" dxfId="18" priority="20" operator="containsText" text="fc">
       <formula>NOT(ISERROR(SEARCH("fc",F48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50">
-    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="stim">
+    <cfRule type="containsText" dxfId="17" priority="17" operator="containsText" text="stim">
       <formula>NOT(ISERROR(SEARCH("stim",F50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="18" operator="containsText" text="fc">
+    <cfRule type="containsText" dxfId="16" priority="18" operator="containsText" text="fc">
       <formula>NOT(ISERROR(SEARCH("fc",F50)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F51">
-    <cfRule type="containsText" dxfId="17" priority="15" operator="containsText" text="stim">
+    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="stim">
       <formula>NOT(ISERROR(SEARCH("stim",F51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="16" operator="containsText" text="fc">
+    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="fc">
       <formula>NOT(ISERROR(SEARCH("fc",F51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F52">
-    <cfRule type="containsText" dxfId="15" priority="13" operator="containsText" text="stim">
+    <cfRule type="containsText" dxfId="13" priority="13" operator="containsText" text="stim">
       <formula>NOT(ISERROR(SEARCH("stim",F52)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="14" operator="containsText" text="fc">
+    <cfRule type="containsText" dxfId="12" priority="14" operator="containsText" text="fc">
       <formula>NOT(ISERROR(SEARCH("fc",F52)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F53">
-    <cfRule type="containsText" dxfId="13" priority="11" operator="containsText" text="stim">
+    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="stim">
       <formula>NOT(ISERROR(SEARCH("stim",F53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="12" operator="containsText" text="fc">
+    <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="fc">
       <formula>NOT(ISERROR(SEARCH("fc",F53)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54">
-    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="stim">
+    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="stim">
       <formula>NOT(ISERROR(SEARCH("stim",F54)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="fc">
+    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="fc">
       <formula>NOT(ISERROR(SEARCH("fc",F54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55">
-    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="stim">
+    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="stim">
       <formula>NOT(ISERROR(SEARCH("stim",F55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="8" operator="containsText" text="fc">
+    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="fc">
       <formula>NOT(ISERROR(SEARCH("fc",F55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="stim">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="stim">
       <formula>NOT(ISERROR(SEARCH("stim",F56)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="fc">
+    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="fc">
       <formula>NOT(ISERROR(SEARCH("fc",F56)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="stim">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="stim">
       <formula>NOT(ISERROR(SEARCH("stim",F57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="fc">
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="fc">
       <formula>NOT(ISERROR(SEARCH("fc",F57)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F58">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="stim">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="stim">
       <formula>NOT(ISERROR(SEARCH("stim",F58)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="fc">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="fc">
       <formula>NOT(ISERROR(SEARCH("fc",F58)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/excelFile.xlsx
+++ b/excelFile.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E88A1B82-307A-4D55-B1A5-913C7C9B3CA0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85957857-47FC-419D-9EB5-983A2A250636}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="65">
   <si>
     <t>Date</t>
   </si>
@@ -257,7 +257,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -315,6 +315,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,7 +398,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -460,11 +466,41 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="72">
+  <dxfs count="76">
+    <dxf>
+      <font>
+        <color rgb="FF124E13"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFBC0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF124E13"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFBC0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF124E13"/>
@@ -1111,13 +1147,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K60"/>
+  <dimension ref="A1:K63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D63" sqref="D63"/>
+      <selection pane="bottomRight" activeCell="L63" sqref="L63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3131,293 +3167,414 @@
         <v>1</v>
       </c>
     </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="46">
+        <v>181116</v>
+      </c>
+      <c r="B61" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C61" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="D61" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="E61" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="F61" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="G61" s="43">
+        <v>16.8</v>
+      </c>
+      <c r="H61" s="43">
+        <v>0</v>
+      </c>
+      <c r="I61" s="43">
+        <v>16.8</v>
+      </c>
+      <c r="J61" s="44">
+        <v>16.8</v>
+      </c>
+      <c r="K61" s="45" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="46">
+        <v>181116</v>
+      </c>
+      <c r="B62" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="C62" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="D62" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="E62" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="F62" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="G62" s="43">
+        <v>16.8</v>
+      </c>
+      <c r="H62" s="43">
+        <v>0</v>
+      </c>
+      <c r="I62" s="43">
+        <v>16.8</v>
+      </c>
+      <c r="J62" s="44">
+        <v>16.8</v>
+      </c>
+      <c r="K62" s="45" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="46">
+        <v>181116</v>
+      </c>
+      <c r="B63" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="C63" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="D63" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="E63" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="F63" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="G63" s="43">
+        <v>16.8</v>
+      </c>
+      <c r="H63" s="43">
+        <v>0</v>
+      </c>
+      <c r="I63" s="43">
+        <v>16.8</v>
+      </c>
+      <c r="J63" s="44">
+        <v>16.8</v>
+      </c>
+      <c r="K63" s="45">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="F1:F21 F37 F49 F59:F1048576">
-    <cfRule type="containsText" dxfId="71" priority="74" operator="containsText" text="fc">
+  <conditionalFormatting sqref="F1:F21 F37 F49 F59:F61 F64:F1048576">
+    <cfRule type="containsText" dxfId="75" priority="78" operator="containsText" text="fc">
       <formula>NOT(ISERROR(SEARCH("fc",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="73" operator="containsText" text="stim">
+    <cfRule type="containsText" dxfId="74" priority="77" operator="containsText" text="stim">
       <formula>NOT(ISERROR(SEARCH("stim",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
+    <cfRule type="containsText" dxfId="73" priority="75" operator="containsText" text="stim">
+      <formula>NOT(ISERROR(SEARCH("stim",F22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="72" priority="76" operator="containsText" text="fc">
+      <formula>NOT(ISERROR(SEARCH("fc",F22)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23">
+    <cfRule type="containsText" dxfId="71" priority="73" operator="containsText" text="stim">
+      <formula>NOT(ISERROR(SEARCH("stim",F23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="70" priority="74" operator="containsText" text="fc">
+      <formula>NOT(ISERROR(SEARCH("fc",F23)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24">
     <cfRule type="containsText" dxfId="69" priority="71" operator="containsText" text="stim">
-      <formula>NOT(ISERROR(SEARCH("stim",F22)))</formula>
+      <formula>NOT(ISERROR(SEARCH("stim",F24)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="68" priority="72" operator="containsText" text="fc">
-      <formula>NOT(ISERROR(SEARCH("fc",F22)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F23">
-    <cfRule type="containsText" dxfId="67" priority="69" operator="containsText" text="stim">
-      <formula>NOT(ISERROR(SEARCH("stim",F23)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="70" operator="containsText" text="fc">
-      <formula>NOT(ISERROR(SEARCH("fc",F23)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F24">
-    <cfRule type="containsText" dxfId="65" priority="67" operator="containsText" text="stim">
-      <formula>NOT(ISERROR(SEARCH("stim",F24)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="68" operator="containsText" text="fc">
       <formula>NOT(ISERROR(SEARCH("fc",F24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
+    <cfRule type="containsText" dxfId="67" priority="67" operator="containsText" text="stim">
+      <formula>NOT(ISERROR(SEARCH("stim",F25)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="66" priority="68" operator="containsText" text="fc">
+      <formula>NOT(ISERROR(SEARCH("fc",F25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F26">
+    <cfRule type="containsText" dxfId="65" priority="65" operator="containsText" text="stim">
+      <formula>NOT(ISERROR(SEARCH("stim",F26)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="64" priority="66" operator="containsText" text="fc">
+      <formula>NOT(ISERROR(SEARCH("fc",F26)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F27">
     <cfRule type="containsText" dxfId="63" priority="63" operator="containsText" text="stim">
-      <formula>NOT(ISERROR(SEARCH("stim",F25)))</formula>
+      <formula>NOT(ISERROR(SEARCH("stim",F27)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="62" priority="64" operator="containsText" text="fc">
-      <formula>NOT(ISERROR(SEARCH("fc",F25)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F26">
+      <formula>NOT(ISERROR(SEARCH("fc",F27)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F28">
     <cfRule type="containsText" dxfId="61" priority="61" operator="containsText" text="stim">
-      <formula>NOT(ISERROR(SEARCH("stim",F26)))</formula>
+      <formula>NOT(ISERROR(SEARCH("stim",F28)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="60" priority="62" operator="containsText" text="fc">
-      <formula>NOT(ISERROR(SEARCH("fc",F26)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F27">
+      <formula>NOT(ISERROR(SEARCH("fc",F28)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F29">
     <cfRule type="containsText" dxfId="59" priority="59" operator="containsText" text="stim">
-      <formula>NOT(ISERROR(SEARCH("stim",F27)))</formula>
+      <formula>NOT(ISERROR(SEARCH("stim",F29)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="58" priority="60" operator="containsText" text="fc">
-      <formula>NOT(ISERROR(SEARCH("fc",F27)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F28">
+      <formula>NOT(ISERROR(SEARCH("fc",F29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F30">
     <cfRule type="containsText" dxfId="57" priority="57" operator="containsText" text="stim">
-      <formula>NOT(ISERROR(SEARCH("stim",F28)))</formula>
+      <formula>NOT(ISERROR(SEARCH("stim",F30)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="56" priority="58" operator="containsText" text="fc">
-      <formula>NOT(ISERROR(SEARCH("fc",F28)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F29">
+      <formula>NOT(ISERROR(SEARCH("fc",F30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F31">
     <cfRule type="containsText" dxfId="55" priority="55" operator="containsText" text="stim">
-      <formula>NOT(ISERROR(SEARCH("stim",F29)))</formula>
+      <formula>NOT(ISERROR(SEARCH("stim",F31)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="54" priority="56" operator="containsText" text="fc">
-      <formula>NOT(ISERROR(SEARCH("fc",F29)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F30">
+      <formula>NOT(ISERROR(SEARCH("fc",F31)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32">
     <cfRule type="containsText" dxfId="53" priority="53" operator="containsText" text="stim">
-      <formula>NOT(ISERROR(SEARCH("stim",F30)))</formula>
+      <formula>NOT(ISERROR(SEARCH("stim",F32)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="52" priority="54" operator="containsText" text="fc">
-      <formula>NOT(ISERROR(SEARCH("fc",F30)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F31">
+      <formula>NOT(ISERROR(SEARCH("fc",F32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F33">
     <cfRule type="containsText" dxfId="51" priority="51" operator="containsText" text="stim">
-      <formula>NOT(ISERROR(SEARCH("stim",F31)))</formula>
+      <formula>NOT(ISERROR(SEARCH("stim",F33)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="50" priority="52" operator="containsText" text="fc">
-      <formula>NOT(ISERROR(SEARCH("fc",F31)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F32">
+      <formula>NOT(ISERROR(SEARCH("fc",F33)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F34">
     <cfRule type="containsText" dxfId="49" priority="49" operator="containsText" text="stim">
-      <formula>NOT(ISERROR(SEARCH("stim",F32)))</formula>
+      <formula>NOT(ISERROR(SEARCH("stim",F34)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="48" priority="50" operator="containsText" text="fc">
-      <formula>NOT(ISERROR(SEARCH("fc",F32)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F33">
+      <formula>NOT(ISERROR(SEARCH("fc",F34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F35">
     <cfRule type="containsText" dxfId="47" priority="47" operator="containsText" text="stim">
-      <formula>NOT(ISERROR(SEARCH("stim",F33)))</formula>
+      <formula>NOT(ISERROR(SEARCH("stim",F35)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="46" priority="48" operator="containsText" text="fc">
-      <formula>NOT(ISERROR(SEARCH("fc",F33)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F34">
+      <formula>NOT(ISERROR(SEARCH("fc",F35)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F36">
     <cfRule type="containsText" dxfId="45" priority="45" operator="containsText" text="stim">
-      <formula>NOT(ISERROR(SEARCH("stim",F34)))</formula>
+      <formula>NOT(ISERROR(SEARCH("stim",F36)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="44" priority="46" operator="containsText" text="fc">
-      <formula>NOT(ISERROR(SEARCH("fc",F34)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F35">
+      <formula>NOT(ISERROR(SEARCH("fc",F36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38">
     <cfRule type="containsText" dxfId="43" priority="43" operator="containsText" text="stim">
-      <formula>NOT(ISERROR(SEARCH("stim",F35)))</formula>
+      <formula>NOT(ISERROR(SEARCH("stim",F38)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="42" priority="44" operator="containsText" text="fc">
-      <formula>NOT(ISERROR(SEARCH("fc",F35)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F36">
+      <formula>NOT(ISERROR(SEARCH("fc",F38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39">
     <cfRule type="containsText" dxfId="41" priority="41" operator="containsText" text="stim">
-      <formula>NOT(ISERROR(SEARCH("stim",F36)))</formula>
+      <formula>NOT(ISERROR(SEARCH("stim",F39)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="40" priority="42" operator="containsText" text="fc">
-      <formula>NOT(ISERROR(SEARCH("fc",F36)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F38">
+      <formula>NOT(ISERROR(SEARCH("fc",F39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F40">
     <cfRule type="containsText" dxfId="39" priority="39" operator="containsText" text="stim">
-      <formula>NOT(ISERROR(SEARCH("stim",F38)))</formula>
+      <formula>NOT(ISERROR(SEARCH("stim",F40)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="38" priority="40" operator="containsText" text="fc">
-      <formula>NOT(ISERROR(SEARCH("fc",F38)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F39">
+      <formula>NOT(ISERROR(SEARCH("fc",F40)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F41">
     <cfRule type="containsText" dxfId="37" priority="37" operator="containsText" text="stim">
-      <formula>NOT(ISERROR(SEARCH("stim",F39)))</formula>
+      <formula>NOT(ISERROR(SEARCH("stim",F41)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="36" priority="38" operator="containsText" text="fc">
-      <formula>NOT(ISERROR(SEARCH("fc",F39)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F40">
+      <formula>NOT(ISERROR(SEARCH("fc",F41)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F42">
     <cfRule type="containsText" dxfId="35" priority="35" operator="containsText" text="stim">
-      <formula>NOT(ISERROR(SEARCH("stim",F40)))</formula>
+      <formula>NOT(ISERROR(SEARCH("stim",F42)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="34" priority="36" operator="containsText" text="fc">
-      <formula>NOT(ISERROR(SEARCH("fc",F40)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F41">
+      <formula>NOT(ISERROR(SEARCH("fc",F42)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F43">
     <cfRule type="containsText" dxfId="33" priority="33" operator="containsText" text="stim">
-      <formula>NOT(ISERROR(SEARCH("stim",F41)))</formula>
+      <formula>NOT(ISERROR(SEARCH("stim",F43)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="32" priority="34" operator="containsText" text="fc">
-      <formula>NOT(ISERROR(SEARCH("fc",F41)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F42">
+      <formula>NOT(ISERROR(SEARCH("fc",F43)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F44">
     <cfRule type="containsText" dxfId="31" priority="31" operator="containsText" text="stim">
-      <formula>NOT(ISERROR(SEARCH("stim",F42)))</formula>
+      <formula>NOT(ISERROR(SEARCH("stim",F44)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="30" priority="32" operator="containsText" text="fc">
-      <formula>NOT(ISERROR(SEARCH("fc",F42)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F43">
+      <formula>NOT(ISERROR(SEARCH("fc",F44)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F45">
     <cfRule type="containsText" dxfId="29" priority="29" operator="containsText" text="stim">
-      <formula>NOT(ISERROR(SEARCH("stim",F43)))</formula>
+      <formula>NOT(ISERROR(SEARCH("stim",F45)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="28" priority="30" operator="containsText" text="fc">
-      <formula>NOT(ISERROR(SEARCH("fc",F43)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F44">
+      <formula>NOT(ISERROR(SEARCH("fc",F45)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F46">
     <cfRule type="containsText" dxfId="27" priority="27" operator="containsText" text="stim">
-      <formula>NOT(ISERROR(SEARCH("stim",F44)))</formula>
+      <formula>NOT(ISERROR(SEARCH("stim",F46)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="26" priority="28" operator="containsText" text="fc">
-      <formula>NOT(ISERROR(SEARCH("fc",F44)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F45">
+      <formula>NOT(ISERROR(SEARCH("fc",F46)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F47">
     <cfRule type="containsText" dxfId="25" priority="25" operator="containsText" text="stim">
-      <formula>NOT(ISERROR(SEARCH("stim",F45)))</formula>
+      <formula>NOT(ISERROR(SEARCH("stim",F47)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="24" priority="26" operator="containsText" text="fc">
-      <formula>NOT(ISERROR(SEARCH("fc",F45)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F46">
+      <formula>NOT(ISERROR(SEARCH("fc",F47)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F48">
     <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="stim">
-      <formula>NOT(ISERROR(SEARCH("stim",F46)))</formula>
+      <formula>NOT(ISERROR(SEARCH("stim",F48)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="22" priority="24" operator="containsText" text="fc">
-      <formula>NOT(ISERROR(SEARCH("fc",F46)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F47">
+      <formula>NOT(ISERROR(SEARCH("fc",F48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F50">
     <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="stim">
-      <formula>NOT(ISERROR(SEARCH("stim",F47)))</formula>
+      <formula>NOT(ISERROR(SEARCH("stim",F50)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="fc">
-      <formula>NOT(ISERROR(SEARCH("fc",F47)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F48">
+      <formula>NOT(ISERROR(SEARCH("fc",F50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F51">
     <cfRule type="containsText" dxfId="19" priority="19" operator="containsText" text="stim">
-      <formula>NOT(ISERROR(SEARCH("stim",F48)))</formula>
+      <formula>NOT(ISERROR(SEARCH("stim",F51)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="18" priority="20" operator="containsText" text="fc">
-      <formula>NOT(ISERROR(SEARCH("fc",F48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F50">
+      <formula>NOT(ISERROR(SEARCH("fc",F51)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F52">
     <cfRule type="containsText" dxfId="17" priority="17" operator="containsText" text="stim">
-      <formula>NOT(ISERROR(SEARCH("stim",F50)))</formula>
+      <formula>NOT(ISERROR(SEARCH("stim",F52)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="16" priority="18" operator="containsText" text="fc">
-      <formula>NOT(ISERROR(SEARCH("fc",F50)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F51">
+      <formula>NOT(ISERROR(SEARCH("fc",F52)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F53">
     <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="stim">
-      <formula>NOT(ISERROR(SEARCH("stim",F51)))</formula>
+      <formula>NOT(ISERROR(SEARCH("stim",F53)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="fc">
-      <formula>NOT(ISERROR(SEARCH("fc",F51)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F52">
+      <formula>NOT(ISERROR(SEARCH("fc",F53)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F54">
     <cfRule type="containsText" dxfId="13" priority="13" operator="containsText" text="stim">
-      <formula>NOT(ISERROR(SEARCH("stim",F52)))</formula>
+      <formula>NOT(ISERROR(SEARCH("stim",F54)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="12" priority="14" operator="containsText" text="fc">
-      <formula>NOT(ISERROR(SEARCH("fc",F52)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F53">
+      <formula>NOT(ISERROR(SEARCH("fc",F54)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F55">
     <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="stim">
-      <formula>NOT(ISERROR(SEARCH("stim",F53)))</formula>
+      <formula>NOT(ISERROR(SEARCH("stim",F55)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="fc">
-      <formula>NOT(ISERROR(SEARCH("fc",F53)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F54">
+      <formula>NOT(ISERROR(SEARCH("fc",F55)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F56">
     <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="stim">
-      <formula>NOT(ISERROR(SEARCH("stim",F54)))</formula>
+      <formula>NOT(ISERROR(SEARCH("stim",F56)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="fc">
-      <formula>NOT(ISERROR(SEARCH("fc",F54)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F55">
+      <formula>NOT(ISERROR(SEARCH("fc",F56)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F57">
     <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="stim">
-      <formula>NOT(ISERROR(SEARCH("stim",F55)))</formula>
+      <formula>NOT(ISERROR(SEARCH("stim",F57)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="fc">
-      <formula>NOT(ISERROR(SEARCH("fc",F55)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F56">
+      <formula>NOT(ISERROR(SEARCH("fc",F57)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F58">
     <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="stim">
-      <formula>NOT(ISERROR(SEARCH("stim",F56)))</formula>
+      <formula>NOT(ISERROR(SEARCH("stim",F58)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="fc">
-      <formula>NOT(ISERROR(SEARCH("fc",F56)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F57">
+      <formula>NOT(ISERROR(SEARCH("fc",F58)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F62">
     <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="stim">
-      <formula>NOT(ISERROR(SEARCH("stim",F57)))</formula>
+      <formula>NOT(ISERROR(SEARCH("stim",F62)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="fc">
-      <formula>NOT(ISERROR(SEARCH("fc",F57)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F58">
+      <formula>NOT(ISERROR(SEARCH("fc",F62)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F63">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="stim">
-      <formula>NOT(ISERROR(SEARCH("stim",F58)))</formula>
+      <formula>NOT(ISERROR(SEARCH("stim",F63)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="fc">
-      <formula>NOT(ISERROR(SEARCH("fc",F58)))</formula>
+      <formula>NOT(ISERROR(SEARCH("fc",F63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excelFile.xlsx
+++ b/excelFile.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85957857-47FC-419D-9EB5-983A2A250636}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{481521D7-E5DB-4C11-9E26-28B29C81A9AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="70">
   <si>
     <t>Date</t>
   </si>
@@ -133,9 +133,6 @@
     <t>G73M4</t>
   </si>
   <si>
-    <t>GoodRuns</t>
-  </si>
-  <si>
     <t>1,2,3</t>
   </si>
   <si>
@@ -221,6 +218,24 @@
   </si>
   <si>
     <t>C:\Users\Nischal\Documents\QuickTestData</t>
+  </si>
+  <si>
+    <t>D:\ProcessedData\TestData\qcMaskEdit</t>
+  </si>
+  <si>
+    <t>D:\ProcessedData\TestData\hillmandpf</t>
+  </si>
+  <si>
+    <t>H:\Data_for_Kenny\Young_Animals\Young_Week_0</t>
+  </si>
+  <si>
+    <t>rename</t>
+  </si>
+  <si>
+    <t>H:\Data_for_Kenny\Aged_Animals\Aged_Week_0</t>
+  </si>
+  <si>
+    <t>E:\ProcessedData\HillmanLag</t>
   </si>
 </sst>
 </file>
@@ -257,7 +272,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -321,6 +336,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -398,7 +425,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -476,11 +503,101 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="76">
+  <dxfs count="90">
+    <dxf>
+      <font>
+        <color rgb="FFBC0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF124E13"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFBC0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF124E13"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFBC0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF124E13"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFBC0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF124E13"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF124E13"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFBC0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF124E13"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFBC0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF124E13"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFBC0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF124E13"/>
@@ -1147,13 +1264,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K63"/>
+  <dimension ref="A1:K74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L63" sqref="L63"/>
+      <selection pane="bottomRight" activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1202,7 +1319,7 @@
         <v>29</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -1775,7 +1892,7 @@
         <v>30</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D21" s="16" t="s">
         <v>31</v>
@@ -1799,7 +1916,7 @@
         <v>20</v>
       </c>
       <c r="K21" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -1810,7 +1927,7 @@
         <v>32</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D22" s="16" t="s">
         <v>31</v>
@@ -1834,7 +1951,7 @@
         <v>20</v>
       </c>
       <c r="K22" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -1845,7 +1962,7 @@
         <v>33</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D23" s="16" t="s">
         <v>31</v>
@@ -1869,7 +1986,7 @@
         <v>20</v>
       </c>
       <c r="K23" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -1880,7 +1997,7 @@
         <v>34</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D24" s="16" t="s">
         <v>31</v>
@@ -1904,7 +2021,7 @@
         <v>20</v>
       </c>
       <c r="K24" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -1912,10 +2029,10 @@
         <v>190710</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D25" s="25" t="s">
         <v>31</v>
@@ -1939,7 +2056,7 @@
         <v>20</v>
       </c>
       <c r="K25" s="29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -1947,10 +2064,10 @@
         <v>190710</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D26" s="25" t="s">
         <v>31</v>
@@ -1974,7 +2091,7 @@
         <v>20</v>
       </c>
       <c r="K26" s="29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -1982,10 +2099,10 @@
         <v>190710</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D27" s="25" t="s">
         <v>31</v>
@@ -2009,7 +2126,7 @@
         <v>20</v>
       </c>
       <c r="K27" s="29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -2017,10 +2134,10 @@
         <v>190710</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D28" s="25" t="s">
         <v>31</v>
@@ -2044,7 +2161,7 @@
         <v>20</v>
       </c>
       <c r="K28" s="29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -2052,10 +2169,10 @@
         <v>190712</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D29" s="16" t="s">
         <v>31</v>
@@ -2079,7 +2196,7 @@
         <v>20</v>
       </c>
       <c r="K29" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -2087,10 +2204,10 @@
         <v>190712</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D30" s="16" t="s">
         <v>31</v>
@@ -2114,7 +2231,7 @@
         <v>20</v>
       </c>
       <c r="K30" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -2122,10 +2239,10 @@
         <v>190712</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D31" s="16" t="s">
         <v>31</v>
@@ -2149,7 +2266,7 @@
         <v>20</v>
       </c>
       <c r="K31" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -2157,10 +2274,10 @@
         <v>190712</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D32" s="16" t="s">
         <v>31</v>
@@ -2184,7 +2301,7 @@
         <v>20</v>
       </c>
       <c r="K32" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -2192,10 +2309,10 @@
         <v>190719</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D33" s="25" t="s">
         <v>31</v>
@@ -2219,7 +2336,7 @@
         <v>20</v>
       </c>
       <c r="K33" s="29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -2227,10 +2344,10 @@
         <v>190719</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D34" s="25" t="s">
         <v>31</v>
@@ -2254,7 +2371,7 @@
         <v>20</v>
       </c>
       <c r="K34" s="29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -2262,10 +2379,10 @@
         <v>190719</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D35" s="25" t="s">
         <v>31</v>
@@ -2289,7 +2406,7 @@
         <v>20</v>
       </c>
       <c r="K35" s="29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -2297,10 +2414,10 @@
         <v>190719</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D36" s="25" t="s">
         <v>31</v>
@@ -2324,7 +2441,7 @@
         <v>20</v>
       </c>
       <c r="K36" s="29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -2332,13 +2449,13 @@
         <v>181116</v>
       </c>
       <c r="B37" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="C37" s="31" t="s">
+      <c r="D37" s="31" t="s">
         <v>47</v>
-      </c>
-      <c r="D37" s="31" t="s">
-        <v>48</v>
       </c>
       <c r="E37" s="32" t="s">
         <v>22</v>
@@ -2359,7 +2476,7 @@
         <v>16.8</v>
       </c>
       <c r="K37" s="34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -2367,13 +2484,13 @@
         <v>181116</v>
       </c>
       <c r="B38" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="C38" s="31" t="s">
+      <c r="D38" s="31" t="s">
         <v>47</v>
-      </c>
-      <c r="D38" s="31" t="s">
-        <v>48</v>
       </c>
       <c r="E38" s="32" t="s">
         <v>22</v>
@@ -2394,7 +2511,7 @@
         <v>16.8</v>
       </c>
       <c r="K38" s="34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -2402,13 +2519,13 @@
         <v>181116</v>
       </c>
       <c r="B39" s="30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C39" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39" s="31" t="s">
         <v>47</v>
-      </c>
-      <c r="D39" s="31" t="s">
-        <v>48</v>
       </c>
       <c r="E39" s="32" t="s">
         <v>22</v>
@@ -2429,7 +2546,7 @@
         <v>16.8</v>
       </c>
       <c r="K39" s="34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -2437,13 +2554,13 @@
         <v>181116</v>
       </c>
       <c r="B40" s="30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C40" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" s="31" t="s">
         <v>47</v>
-      </c>
-      <c r="D40" s="31" t="s">
-        <v>48</v>
       </c>
       <c r="E40" s="32" t="s">
         <v>22</v>
@@ -2464,7 +2581,7 @@
         <v>16.8</v>
       </c>
       <c r="K40" s="34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -2472,13 +2589,13 @@
         <v>181116</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C41" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41" s="31" t="s">
         <v>47</v>
-      </c>
-      <c r="D41" s="31" t="s">
-        <v>48</v>
       </c>
       <c r="E41" s="32" t="s">
         <v>22</v>
@@ -2499,7 +2616,7 @@
         <v>16.8</v>
       </c>
       <c r="K41" s="34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -2507,13 +2624,13 @@
         <v>181116</v>
       </c>
       <c r="B42" s="30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C42" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="D42" s="31" t="s">
         <v>47</v>
-      </c>
-      <c r="D42" s="31" t="s">
-        <v>48</v>
       </c>
       <c r="E42" s="32" t="s">
         <v>22</v>
@@ -2534,7 +2651,7 @@
         <v>16.8</v>
       </c>
       <c r="K42" s="34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -2542,13 +2659,13 @@
         <v>181116</v>
       </c>
       <c r="B43" s="30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C43" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="D43" s="31" t="s">
         <v>47</v>
-      </c>
-      <c r="D43" s="31" t="s">
-        <v>48</v>
       </c>
       <c r="E43" s="32" t="s">
         <v>22</v>
@@ -2569,7 +2686,7 @@
         <v>16.8</v>
       </c>
       <c r="K43" s="34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -2577,13 +2694,13 @@
         <v>181116</v>
       </c>
       <c r="B44" s="30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C44" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="D44" s="31" t="s">
         <v>47</v>
-      </c>
-      <c r="D44" s="31" t="s">
-        <v>48</v>
       </c>
       <c r="E44" s="32" t="s">
         <v>22</v>
@@ -2604,7 +2721,7 @@
         <v>16.8</v>
       </c>
       <c r="K44" s="34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -2612,13 +2729,13 @@
         <v>181116</v>
       </c>
       <c r="B45" s="30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C45" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="D45" s="31" t="s">
         <v>47</v>
-      </c>
-      <c r="D45" s="31" t="s">
-        <v>48</v>
       </c>
       <c r="E45" s="32" t="s">
         <v>22</v>
@@ -2639,7 +2756,7 @@
         <v>16.8</v>
       </c>
       <c r="K45" s="34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -2647,13 +2764,13 @@
         <v>181116</v>
       </c>
       <c r="B46" s="30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C46" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="D46" s="31" t="s">
         <v>47</v>
-      </c>
-      <c r="D46" s="31" t="s">
-        <v>48</v>
       </c>
       <c r="E46" s="32" t="s">
         <v>22</v>
@@ -2674,7 +2791,7 @@
         <v>16.8</v>
       </c>
       <c r="K46" s="34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -2682,13 +2799,13 @@
         <v>181116</v>
       </c>
       <c r="B47" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="C47" s="31" t="s">
-        <v>55</v>
-      </c>
       <c r="D47" s="31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E47" s="32" t="s">
         <v>22</v>
@@ -2709,7 +2826,7 @@
         <v>16.8</v>
       </c>
       <c r="K47" s="34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -2717,13 +2834,13 @@
         <v>181116</v>
       </c>
       <c r="B48" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="C48" s="31" t="s">
-        <v>55</v>
-      </c>
       <c r="D48" s="31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E48" s="32" t="s">
         <v>22</v>
@@ -2744,7 +2861,7 @@
         <v>16.8</v>
       </c>
       <c r="K48" s="34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -2752,13 +2869,13 @@
         <v>180918</v>
       </c>
       <c r="B49" s="40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C49" s="35" t="s">
         <v>20</v>
       </c>
       <c r="D49" s="35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E49" s="36" t="s">
         <v>22</v>
@@ -2779,7 +2896,7 @@
         <v>16.8</v>
       </c>
       <c r="K49" s="39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -2787,13 +2904,13 @@
         <v>180918</v>
       </c>
       <c r="B50" s="40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C50" s="35" t="s">
         <v>20</v>
       </c>
       <c r="D50" s="35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E50" s="36" t="s">
         <v>22</v>
@@ -2814,7 +2931,7 @@
         <v>16.8</v>
       </c>
       <c r="K50" s="39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -2822,13 +2939,13 @@
         <v>180918</v>
       </c>
       <c r="B51" s="40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C51" s="35" t="s">
         <v>20</v>
       </c>
       <c r="D51" s="35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E51" s="36" t="s">
         <v>22</v>
@@ -2849,7 +2966,7 @@
         <v>16.8</v>
       </c>
       <c r="K51" s="39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -2857,13 +2974,13 @@
         <v>180918</v>
       </c>
       <c r="B52" s="40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C52" s="35" t="s">
         <v>20</v>
       </c>
       <c r="D52" s="35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E52" s="36" t="s">
         <v>22</v>
@@ -2884,7 +3001,7 @@
         <v>16.8</v>
       </c>
       <c r="K52" s="39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -2892,13 +3009,13 @@
         <v>180918</v>
       </c>
       <c r="B53" s="40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C53" s="35" t="s">
         <v>20</v>
       </c>
       <c r="D53" s="35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E53" s="36" t="s">
         <v>22</v>
@@ -2919,7 +3036,7 @@
         <v>16.8</v>
       </c>
       <c r="K53" s="39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -2927,13 +3044,13 @@
         <v>180918</v>
       </c>
       <c r="B54" s="40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C54" s="35" t="s">
         <v>20</v>
       </c>
       <c r="D54" s="35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E54" s="36" t="s">
         <v>22</v>
@@ -2954,7 +3071,7 @@
         <v>16.8</v>
       </c>
       <c r="K54" s="39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -2962,13 +3079,13 @@
         <v>180918</v>
       </c>
       <c r="B55" s="40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C55" s="35" t="s">
         <v>20</v>
       </c>
       <c r="D55" s="35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E55" s="36" t="s">
         <v>22</v>
@@ -2989,7 +3106,7 @@
         <v>16.8</v>
       </c>
       <c r="K55" s="39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -2997,13 +3114,13 @@
         <v>180918</v>
       </c>
       <c r="B56" s="40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C56" s="35" t="s">
         <v>20</v>
       </c>
       <c r="D56" s="35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E56" s="36" t="s">
         <v>22</v>
@@ -3024,7 +3141,7 @@
         <v>16.8</v>
       </c>
       <c r="K56" s="39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -3032,13 +3149,13 @@
         <v>180918</v>
       </c>
       <c r="B57" s="40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C57" s="35" t="s">
         <v>20</v>
       </c>
       <c r="D57" s="35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E57" s="36" t="s">
         <v>22</v>
@@ -3059,7 +3176,7 @@
         <v>16.8</v>
       </c>
       <c r="K57" s="39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -3067,13 +3184,13 @@
         <v>180918</v>
       </c>
       <c r="B58" s="40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C58" s="35" t="s">
         <v>20</v>
       </c>
       <c r="D58" s="35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E58" s="36" t="s">
         <v>22</v>
@@ -3094,7 +3211,7 @@
         <v>16.8</v>
       </c>
       <c r="K58" s="39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -3102,13 +3219,13 @@
         <v>190523</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C59" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D59" s="8" t="s">
         <v>64</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>63</v>
       </c>
       <c r="E59" s="10" t="s">
         <v>4</v>
@@ -3137,13 +3254,13 @@
         <v>190905</v>
       </c>
       <c r="B60" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D60" s="8" t="s">
         <v>62</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>63</v>
       </c>
       <c r="E60" s="10" t="s">
         <v>4</v>
@@ -3172,13 +3289,13 @@
         <v>181116</v>
       </c>
       <c r="B61" s="46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C61" s="41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D61" s="41" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E61" s="42" t="s">
         <v>22</v>
@@ -3199,7 +3316,7 @@
         <v>16.8</v>
       </c>
       <c r="K61" s="45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -3207,13 +3324,13 @@
         <v>181116</v>
       </c>
       <c r="B62" s="46" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C62" s="41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D62" s="41" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E62" s="42" t="s">
         <v>22</v>
@@ -3234,7 +3351,7 @@
         <v>16.8</v>
       </c>
       <c r="K62" s="45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -3242,13 +3359,13 @@
         <v>181116</v>
       </c>
       <c r="B63" s="46" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C63" s="41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D63" s="41" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E63" s="42" t="s">
         <v>22</v>
@@ -3272,309 +3389,730 @@
         <v>2</v>
       </c>
     </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="6">
+        <v>190523</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G64" s="12">
+        <v>20</v>
+      </c>
+      <c r="H64" s="4">
+        <v>20</v>
+      </c>
+      <c r="I64" s="12">
+        <v>20</v>
+      </c>
+      <c r="J64" s="20">
+        <v>20</v>
+      </c>
+      <c r="K64" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="52">
+        <v>181116</v>
+      </c>
+      <c r="B65" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="C65" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="D65" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="E65" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F65" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="G65" s="49">
+        <v>16.8</v>
+      </c>
+      <c r="H65" s="49">
+        <v>0</v>
+      </c>
+      <c r="I65" s="49">
+        <v>16.8</v>
+      </c>
+      <c r="J65" s="50">
+        <v>16.8</v>
+      </c>
+      <c r="K65" s="51"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="52">
+        <v>181116</v>
+      </c>
+      <c r="B66" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="C66" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="D66" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="E66" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F66" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="G66" s="49">
+        <v>16.8</v>
+      </c>
+      <c r="H66" s="49">
+        <v>0</v>
+      </c>
+      <c r="I66" s="49">
+        <v>16.8</v>
+      </c>
+      <c r="J66" s="50">
+        <v>16.8</v>
+      </c>
+      <c r="K66" s="51"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="52">
+        <v>181116</v>
+      </c>
+      <c r="B67" s="52" t="s">
+        <v>50</v>
+      </c>
+      <c r="C67" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="D67" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="E67" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F67" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="G67" s="49">
+        <v>16.8</v>
+      </c>
+      <c r="H67" s="49">
+        <v>0</v>
+      </c>
+      <c r="I67" s="49">
+        <v>16.8</v>
+      </c>
+      <c r="J67" s="50">
+        <v>16.8</v>
+      </c>
+      <c r="K67" s="51"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="52">
+        <v>181116</v>
+      </c>
+      <c r="B68" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="C68" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="D68" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="E68" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F68" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="G68" s="49">
+        <v>16.8</v>
+      </c>
+      <c r="H68" s="49">
+        <v>0</v>
+      </c>
+      <c r="I68" s="49">
+        <v>16.8</v>
+      </c>
+      <c r="J68" s="50">
+        <v>16.8</v>
+      </c>
+      <c r="K68" s="51"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="52">
+        <v>181116</v>
+      </c>
+      <c r="B69" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C69" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="D69" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="E69" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F69" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="G69" s="49">
+        <v>16.8</v>
+      </c>
+      <c r="H69" s="49">
+        <v>0</v>
+      </c>
+      <c r="I69" s="49">
+        <v>16.8</v>
+      </c>
+      <c r="J69" s="50">
+        <v>16.8</v>
+      </c>
+      <c r="K69" s="51"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" s="58">
+        <v>180918</v>
+      </c>
+      <c r="B70" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="C70" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="D70" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E70" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="F70" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="G70" s="55">
+        <v>16.8</v>
+      </c>
+      <c r="H70" s="55">
+        <v>0</v>
+      </c>
+      <c r="I70" s="55">
+        <v>16.8</v>
+      </c>
+      <c r="J70" s="56">
+        <v>16.8</v>
+      </c>
+      <c r="K70" s="57"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="58">
+        <v>180918</v>
+      </c>
+      <c r="B71" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="C71" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="D71" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E71" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="F71" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="G71" s="55">
+        <v>16.8</v>
+      </c>
+      <c r="H71" s="55">
+        <v>0</v>
+      </c>
+      <c r="I71" s="55">
+        <v>16.8</v>
+      </c>
+      <c r="J71" s="56">
+        <v>16.8</v>
+      </c>
+      <c r="K71" s="57"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" s="58">
+        <v>180918</v>
+      </c>
+      <c r="B72" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="C72" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="D72" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E72" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="F72" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="G72" s="55">
+        <v>16.8</v>
+      </c>
+      <c r="H72" s="55">
+        <v>0</v>
+      </c>
+      <c r="I72" s="55">
+        <v>16.8</v>
+      </c>
+      <c r="J72" s="56">
+        <v>16.8</v>
+      </c>
+      <c r="K72" s="57"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="58">
+        <v>180918</v>
+      </c>
+      <c r="B73" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="C73" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="D73" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E73" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="F73" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="G73" s="55">
+        <v>16.8</v>
+      </c>
+      <c r="H73" s="55">
+        <v>0</v>
+      </c>
+      <c r="I73" s="55">
+        <v>16.8</v>
+      </c>
+      <c r="J73" s="56">
+        <v>16.8</v>
+      </c>
+      <c r="K73" s="57"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" s="58">
+        <v>180918</v>
+      </c>
+      <c r="B74" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="C74" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="D74" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E74" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="F74" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="G74" s="55">
+        <v>16.8</v>
+      </c>
+      <c r="H74" s="55">
+        <v>0</v>
+      </c>
+      <c r="I74" s="55">
+        <v>16.8</v>
+      </c>
+      <c r="J74" s="56">
+        <v>16.8</v>
+      </c>
+      <c r="K74" s="57"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="F1:F21 F37 F49 F59:F61 F64:F1048576">
-    <cfRule type="containsText" dxfId="75" priority="78" operator="containsText" text="fc">
+  <conditionalFormatting sqref="F1:F21 F37 F49 F59:F61 F65 F70 F75:F1048576">
+    <cfRule type="containsText" dxfId="89" priority="96" operator="containsText" text="fc">
       <formula>NOT(ISERROR(SEARCH("fc",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="77" operator="containsText" text="stim">
+    <cfRule type="containsText" dxfId="88" priority="95" operator="containsText" text="stim">
       <formula>NOT(ISERROR(SEARCH("stim",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="containsText" dxfId="73" priority="75" operator="containsText" text="stim">
+    <cfRule type="containsText" dxfId="87" priority="93" operator="containsText" text="stim">
       <formula>NOT(ISERROR(SEARCH("stim",F22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="76" operator="containsText" text="fc">
+    <cfRule type="containsText" dxfId="86" priority="94" operator="containsText" text="fc">
       <formula>NOT(ISERROR(SEARCH("fc",F22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="containsText" dxfId="71" priority="73" operator="containsText" text="stim">
+    <cfRule type="containsText" dxfId="85" priority="91" operator="containsText" text="stim">
       <formula>NOT(ISERROR(SEARCH("stim",F23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="74" operator="containsText" text="fc">
+    <cfRule type="containsText" dxfId="84" priority="92" operator="containsText" text="fc">
       <formula>NOT(ISERROR(SEARCH("fc",F23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="containsText" dxfId="69" priority="71" operator="containsText" text="stim">
+    <cfRule type="containsText" dxfId="83" priority="89" operator="containsText" text="stim">
       <formula>NOT(ISERROR(SEARCH("stim",F24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="72" operator="containsText" text="fc">
+    <cfRule type="containsText" dxfId="82" priority="90" operator="containsText" text="fc">
       <formula>NOT(ISERROR(SEARCH("fc",F24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="containsText" dxfId="67" priority="67" operator="containsText" text="stim">
+    <cfRule type="containsText" dxfId="81" priority="85" operator="containsText" text="stim">
       <formula>NOT(ISERROR(SEARCH("stim",F25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="68" operator="containsText" text="fc">
+    <cfRule type="containsText" dxfId="80" priority="86" operator="containsText" text="fc">
       <formula>NOT(ISERROR(SEARCH("fc",F25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26">
-    <cfRule type="containsText" dxfId="65" priority="65" operator="containsText" text="stim">
+    <cfRule type="containsText" dxfId="79" priority="83" operator="containsText" text="stim">
       <formula>NOT(ISERROR(SEARCH("stim",F26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="66" operator="containsText" text="fc">
+    <cfRule type="containsText" dxfId="78" priority="84" operator="containsText" text="fc">
       <formula>NOT(ISERROR(SEARCH("fc",F26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="containsText" dxfId="63" priority="63" operator="containsText" text="stim">
+    <cfRule type="containsText" dxfId="77" priority="81" operator="containsText" text="stim">
       <formula>NOT(ISERROR(SEARCH("stim",F27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="64" operator="containsText" text="fc">
+    <cfRule type="containsText" dxfId="76" priority="82" operator="containsText" text="fc">
       <formula>NOT(ISERROR(SEARCH("fc",F27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="containsText" dxfId="61" priority="61" operator="containsText" text="stim">
+    <cfRule type="containsText" dxfId="75" priority="79" operator="containsText" text="stim">
       <formula>NOT(ISERROR(SEARCH("stim",F28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="62" operator="containsText" text="fc">
+    <cfRule type="containsText" dxfId="74" priority="80" operator="containsText" text="fc">
       <formula>NOT(ISERROR(SEARCH("fc",F28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="containsText" dxfId="59" priority="59" operator="containsText" text="stim">
+    <cfRule type="containsText" dxfId="73" priority="77" operator="containsText" text="stim">
       <formula>NOT(ISERROR(SEARCH("stim",F29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="60" operator="containsText" text="fc">
+    <cfRule type="containsText" dxfId="72" priority="78" operator="containsText" text="fc">
       <formula>NOT(ISERROR(SEARCH("fc",F29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="containsText" dxfId="57" priority="57" operator="containsText" text="stim">
+    <cfRule type="containsText" dxfId="71" priority="75" operator="containsText" text="stim">
       <formula>NOT(ISERROR(SEARCH("stim",F30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="58" operator="containsText" text="fc">
+    <cfRule type="containsText" dxfId="70" priority="76" operator="containsText" text="fc">
       <formula>NOT(ISERROR(SEARCH("fc",F30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31">
-    <cfRule type="containsText" dxfId="55" priority="55" operator="containsText" text="stim">
+    <cfRule type="containsText" dxfId="69" priority="73" operator="containsText" text="stim">
       <formula>NOT(ISERROR(SEARCH("stim",F31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="56" operator="containsText" text="fc">
+    <cfRule type="containsText" dxfId="68" priority="74" operator="containsText" text="fc">
       <formula>NOT(ISERROR(SEARCH("fc",F31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="containsText" dxfId="53" priority="53" operator="containsText" text="stim">
+    <cfRule type="containsText" dxfId="67" priority="71" operator="containsText" text="stim">
       <formula>NOT(ISERROR(SEARCH("stim",F32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="54" operator="containsText" text="fc">
+    <cfRule type="containsText" dxfId="66" priority="72" operator="containsText" text="fc">
       <formula>NOT(ISERROR(SEARCH("fc",F32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="containsText" dxfId="51" priority="51" operator="containsText" text="stim">
+    <cfRule type="containsText" dxfId="65" priority="69" operator="containsText" text="stim">
       <formula>NOT(ISERROR(SEARCH("stim",F33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="52" operator="containsText" text="fc">
+    <cfRule type="containsText" dxfId="64" priority="70" operator="containsText" text="fc">
       <formula>NOT(ISERROR(SEARCH("fc",F33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34">
-    <cfRule type="containsText" dxfId="49" priority="49" operator="containsText" text="stim">
+    <cfRule type="containsText" dxfId="63" priority="67" operator="containsText" text="stim">
       <formula>NOT(ISERROR(SEARCH("stim",F34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="50" operator="containsText" text="fc">
+    <cfRule type="containsText" dxfId="62" priority="68" operator="containsText" text="fc">
       <formula>NOT(ISERROR(SEARCH("fc",F34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="containsText" dxfId="47" priority="47" operator="containsText" text="stim">
+    <cfRule type="containsText" dxfId="61" priority="65" operator="containsText" text="stim">
       <formula>NOT(ISERROR(SEARCH("stim",F35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="48" operator="containsText" text="fc">
+    <cfRule type="containsText" dxfId="60" priority="66" operator="containsText" text="fc">
       <formula>NOT(ISERROR(SEARCH("fc",F35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36">
-    <cfRule type="containsText" dxfId="45" priority="45" operator="containsText" text="stim">
+    <cfRule type="containsText" dxfId="59" priority="63" operator="containsText" text="stim">
       <formula>NOT(ISERROR(SEARCH("stim",F36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="46" operator="containsText" text="fc">
+    <cfRule type="containsText" dxfId="58" priority="64" operator="containsText" text="fc">
       <formula>NOT(ISERROR(SEARCH("fc",F36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F38">
-    <cfRule type="containsText" dxfId="43" priority="43" operator="containsText" text="stim">
+    <cfRule type="containsText" dxfId="57" priority="61" operator="containsText" text="stim">
       <formula>NOT(ISERROR(SEARCH("stim",F38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="44" operator="containsText" text="fc">
+    <cfRule type="containsText" dxfId="56" priority="62" operator="containsText" text="fc">
       <formula>NOT(ISERROR(SEARCH("fc",F38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F39">
-    <cfRule type="containsText" dxfId="41" priority="41" operator="containsText" text="stim">
+    <cfRule type="containsText" dxfId="55" priority="59" operator="containsText" text="stim">
       <formula>NOT(ISERROR(SEARCH("stim",F39)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="42" operator="containsText" text="fc">
+    <cfRule type="containsText" dxfId="54" priority="60" operator="containsText" text="fc">
       <formula>NOT(ISERROR(SEARCH("fc",F39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F40">
-    <cfRule type="containsText" dxfId="39" priority="39" operator="containsText" text="stim">
+    <cfRule type="containsText" dxfId="53" priority="57" operator="containsText" text="stim">
       <formula>NOT(ISERROR(SEARCH("stim",F40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="40" operator="containsText" text="fc">
+    <cfRule type="containsText" dxfId="52" priority="58" operator="containsText" text="fc">
       <formula>NOT(ISERROR(SEARCH("fc",F40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F41">
-    <cfRule type="containsText" dxfId="37" priority="37" operator="containsText" text="stim">
+    <cfRule type="containsText" dxfId="51" priority="55" operator="containsText" text="stim">
       <formula>NOT(ISERROR(SEARCH("stim",F41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="38" operator="containsText" text="fc">
+    <cfRule type="containsText" dxfId="50" priority="56" operator="containsText" text="fc">
       <formula>NOT(ISERROR(SEARCH("fc",F41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42">
-    <cfRule type="containsText" dxfId="35" priority="35" operator="containsText" text="stim">
+    <cfRule type="containsText" dxfId="49" priority="53" operator="containsText" text="stim">
       <formula>NOT(ISERROR(SEARCH("stim",F42)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="36" operator="containsText" text="fc">
+    <cfRule type="containsText" dxfId="48" priority="54" operator="containsText" text="fc">
       <formula>NOT(ISERROR(SEARCH("fc",F42)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43">
-    <cfRule type="containsText" dxfId="33" priority="33" operator="containsText" text="stim">
+    <cfRule type="containsText" dxfId="47" priority="51" operator="containsText" text="stim">
       <formula>NOT(ISERROR(SEARCH("stim",F43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="34" operator="containsText" text="fc">
+    <cfRule type="containsText" dxfId="46" priority="52" operator="containsText" text="fc">
       <formula>NOT(ISERROR(SEARCH("fc",F43)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44">
-    <cfRule type="containsText" dxfId="31" priority="31" operator="containsText" text="stim">
+    <cfRule type="containsText" dxfId="45" priority="49" operator="containsText" text="stim">
       <formula>NOT(ISERROR(SEARCH("stim",F44)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="32" operator="containsText" text="fc">
+    <cfRule type="containsText" dxfId="44" priority="50" operator="containsText" text="fc">
       <formula>NOT(ISERROR(SEARCH("fc",F44)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45">
-    <cfRule type="containsText" dxfId="29" priority="29" operator="containsText" text="stim">
+    <cfRule type="containsText" dxfId="43" priority="47" operator="containsText" text="stim">
       <formula>NOT(ISERROR(SEARCH("stim",F45)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="30" operator="containsText" text="fc">
+    <cfRule type="containsText" dxfId="42" priority="48" operator="containsText" text="fc">
       <formula>NOT(ISERROR(SEARCH("fc",F45)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46">
-    <cfRule type="containsText" dxfId="27" priority="27" operator="containsText" text="stim">
+    <cfRule type="containsText" dxfId="41" priority="45" operator="containsText" text="stim">
       <formula>NOT(ISERROR(SEARCH("stim",F46)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="28" operator="containsText" text="fc">
+    <cfRule type="containsText" dxfId="40" priority="46" operator="containsText" text="fc">
       <formula>NOT(ISERROR(SEARCH("fc",F46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47">
-    <cfRule type="containsText" dxfId="25" priority="25" operator="containsText" text="stim">
+    <cfRule type="containsText" dxfId="39" priority="43" operator="containsText" text="stim">
       <formula>NOT(ISERROR(SEARCH("stim",F47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="26" operator="containsText" text="fc">
+    <cfRule type="containsText" dxfId="38" priority="44" operator="containsText" text="fc">
       <formula>NOT(ISERROR(SEARCH("fc",F47)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48">
-    <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="stim">
+    <cfRule type="containsText" dxfId="37" priority="41" operator="containsText" text="stim">
       <formula>NOT(ISERROR(SEARCH("stim",F48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="24" operator="containsText" text="fc">
+    <cfRule type="containsText" dxfId="36" priority="42" operator="containsText" text="fc">
       <formula>NOT(ISERROR(SEARCH("fc",F48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50">
-    <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="stim">
+    <cfRule type="containsText" dxfId="35" priority="39" operator="containsText" text="stim">
       <formula>NOT(ISERROR(SEARCH("stim",F50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="fc">
+    <cfRule type="containsText" dxfId="34" priority="40" operator="containsText" text="fc">
       <formula>NOT(ISERROR(SEARCH("fc",F50)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F51">
-    <cfRule type="containsText" dxfId="19" priority="19" operator="containsText" text="stim">
+    <cfRule type="containsText" dxfId="33" priority="37" operator="containsText" text="stim">
       <formula>NOT(ISERROR(SEARCH("stim",F51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="20" operator="containsText" text="fc">
+    <cfRule type="containsText" dxfId="32" priority="38" operator="containsText" text="fc">
       <formula>NOT(ISERROR(SEARCH("fc",F51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F52">
-    <cfRule type="containsText" dxfId="17" priority="17" operator="containsText" text="stim">
+    <cfRule type="containsText" dxfId="31" priority="35" operator="containsText" text="stim">
       <formula>NOT(ISERROR(SEARCH("stim",F52)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="18" operator="containsText" text="fc">
+    <cfRule type="containsText" dxfId="30" priority="36" operator="containsText" text="fc">
       <formula>NOT(ISERROR(SEARCH("fc",F52)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F53">
-    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="stim">
+    <cfRule type="containsText" dxfId="29" priority="33" operator="containsText" text="stim">
       <formula>NOT(ISERROR(SEARCH("stim",F53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="fc">
+    <cfRule type="containsText" dxfId="28" priority="34" operator="containsText" text="fc">
       <formula>NOT(ISERROR(SEARCH("fc",F53)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54">
-    <cfRule type="containsText" dxfId="13" priority="13" operator="containsText" text="stim">
+    <cfRule type="containsText" dxfId="27" priority="31" operator="containsText" text="stim">
       <formula>NOT(ISERROR(SEARCH("stim",F54)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="14" operator="containsText" text="fc">
+    <cfRule type="containsText" dxfId="26" priority="32" operator="containsText" text="fc">
       <formula>NOT(ISERROR(SEARCH("fc",F54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55">
+    <cfRule type="containsText" dxfId="25" priority="29" operator="containsText" text="stim">
+      <formula>NOT(ISERROR(SEARCH("stim",F55)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="24" priority="30" operator="containsText" text="fc">
+      <formula>NOT(ISERROR(SEARCH("fc",F55)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F56">
+    <cfRule type="containsText" dxfId="23" priority="27" operator="containsText" text="stim">
+      <formula>NOT(ISERROR(SEARCH("stim",F56)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="28" operator="containsText" text="fc">
+      <formula>NOT(ISERROR(SEARCH("fc",F56)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F57">
+    <cfRule type="containsText" dxfId="21" priority="25" operator="containsText" text="stim">
+      <formula>NOT(ISERROR(SEARCH("stim",F57)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="20" priority="26" operator="containsText" text="fc">
+      <formula>NOT(ISERROR(SEARCH("fc",F57)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F58">
+    <cfRule type="containsText" dxfId="19" priority="23" operator="containsText" text="stim">
+      <formula>NOT(ISERROR(SEARCH("stim",F58)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="24" operator="containsText" text="fc">
+      <formula>NOT(ISERROR(SEARCH("fc",F58)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F62">
+    <cfRule type="containsText" dxfId="17" priority="21" operator="containsText" text="stim">
+      <formula>NOT(ISERROR(SEARCH("stim",F62)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="22" operator="containsText" text="fc">
+      <formula>NOT(ISERROR(SEARCH("fc",F62)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F63">
+    <cfRule type="containsText" dxfId="15" priority="19" operator="containsText" text="stim">
+      <formula>NOT(ISERROR(SEARCH("stim",F63)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="20" operator="containsText" text="fc">
+      <formula>NOT(ISERROR(SEARCH("fc",F63)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F64">
+    <cfRule type="containsText" dxfId="13" priority="17" operator="containsText" text="stim">
+      <formula>NOT(ISERROR(SEARCH("stim",F64)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="18" operator="containsText" text="fc">
+      <formula>NOT(ISERROR(SEARCH("fc",F64)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F66:F68">
     <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="stim">
-      <formula>NOT(ISERROR(SEARCH("stim",F55)))</formula>
+      <formula>NOT(ISERROR(SEARCH("stim",F66)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="fc">
-      <formula>NOT(ISERROR(SEARCH("fc",F55)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F56">
+      <formula>NOT(ISERROR(SEARCH("fc",F66)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F69">
     <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="stim">
-      <formula>NOT(ISERROR(SEARCH("stim",F56)))</formula>
+      <formula>NOT(ISERROR(SEARCH("stim",F69)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="fc">
-      <formula>NOT(ISERROR(SEARCH("fc",F56)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F57">
-    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="stim">
-      <formula>NOT(ISERROR(SEARCH("stim",F57)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="fc">
-      <formula>NOT(ISERROR(SEARCH("fc",F57)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F58">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="stim">
-      <formula>NOT(ISERROR(SEARCH("stim",F58)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="fc">
-      <formula>NOT(ISERROR(SEARCH("fc",F58)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F62">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="stim">
-      <formula>NOT(ISERROR(SEARCH("stim",F62)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="fc">
-      <formula>NOT(ISERROR(SEARCH("fc",F62)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F63">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="stim">
-      <formula>NOT(ISERROR(SEARCH("stim",F63)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="fc">
-      <formula>NOT(ISERROR(SEARCH("fc",F63)))</formula>
+      <formula>NOT(ISERROR(SEARCH("fc",F69)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F71">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="stim">
+      <formula>NOT(ISERROR(SEARCH("stim",F71)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="fc">
+      <formula>NOT(ISERROR(SEARCH("fc",F71)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F72">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="stim">
+      <formula>NOT(ISERROR(SEARCH("stim",F72)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="fc">
+      <formula>NOT(ISERROR(SEARCH("fc",F72)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F73">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="stim">
+      <formula>NOT(ISERROR(SEARCH("stim",F73)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="fc">
+      <formula>NOT(ISERROR(SEARCH("fc",F73)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F74">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="stim">
+      <formula>NOT(ISERROR(SEARCH("stim",F74)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="fc">
+      <formula>NOT(ISERROR(SEARCH("fc",F74)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
